--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AR2_50_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>0.04771547504918539</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>0.7382510651407719</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>0.2773470011655342</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>0.2809151543791467</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>0.3767599263840103</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>0.3450470656633786</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>0.3351211006026806</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>0.3450015935953633</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>0.3438986969040266</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>0.3421756259386405</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="G12">
         <v>1.181864257829536</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="G13">
         <v>0.449284657999484</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="G14">
         <v>0.25189082018593</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="G15">
         <v>0.3369748924392332</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="G16">
         <v>0.3343962630060434</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="G17">
         <v>0.3292187080673616</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="G18">
         <v>0.3303450499444013</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="G19">
         <v>0.3304813027793503</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G20">
         <v>0.3303813337959167</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G21">
         <v>0.3303907203346931</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H22">
         <v>0.6013736753235341</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H23">
         <v>0.6013209218082315</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I24">
         <v>0.5787196370010877</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I25">
         <v>0.5763896555264937</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J26">
         <v>0.5165837999949324</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J27">
         <v>0.5174847229219766</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K28">
         <v>0.483371829000499</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K29">
         <v>0.483857083303335</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L30">
         <v>0.4959531971249246</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L31">
         <v>0.4963434630462299</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M32">
         <v>0.372245926722921</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M33">
         <v>0.3729947145729149</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N34">
         <v>0.4943653496932523</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N35">
         <v>0.4935298919089315</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O36">
         <v>0.5798393557748697</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O37">
         <v>0.5793505272904831</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P38">
         <v>0.5679410494509453</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P39">
         <v>0.5708144543997462</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q40">
         <v>0.5656443704981708</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q41">
         <v>0.565182721203183</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R42">
         <v>0.5315667664904169</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R43">
         <v>0.5326685900190385</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S44">
         <v>0.5617005101470661</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S45">
         <v>0.5607008501994531</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T46">
         <v>0.5223511952674755</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T47">
         <v>0.5238097774372298</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U48">
         <v>0.5461959808030172</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U49">
         <v>0.5458557995299786</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V50">
         <v>0.5627943204817405</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V51">
         <v>0.5628509838378456</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W52">
         <v>0.5096105676964424</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X53">
         <v>0.580388862293671</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y54">
         <v>0.4798833532218056</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z55">
         <v>0.4575057721601225</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA56">
         <v>0.4071164724434925</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB57">
         <v>0.4415113020397737</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC58">
         <v>0.5074485557622826</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD59">
         <v>0.5432365317208088</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE60">
         <v>0.5469758162437285</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF61">
         <v>0.5252517652750027</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG62">
         <v>0.5542071436360727</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH63">
         <v>0.5489307764943846</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AR2_50_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>0.04771547504918539</v>
+        <v>0.2327792178056682</v>
       </c>
       <c r="AS2">
-        <v>0.7874889811422088</v>
+        <v>-0.1147171757997718</v>
       </c>
       <c r="AT2">
-        <v>0.6863426746352452</v>
+        <v>0.5515032008145326</v>
       </c>
       <c r="AU2">
-        <v>0.6569736633466323</v>
+        <v>0.9038950622192856</v>
       </c>
       <c r="AV2">
-        <v>0.1505565631894131</v>
+        <v>0.03846020027388297</v>
       </c>
       <c r="AW2">
-        <v>0.7185823962982931</v>
+        <v>0.6054080602529603</v>
       </c>
       <c r="AX2">
-        <v>0.3480574865621301</v>
+        <v>0.678525445981071</v>
       </c>
       <c r="AY2">
-        <v>0.1774721582651808</v>
+        <v>0.09306908518476864</v>
       </c>
       <c r="AZ2">
-        <v>0.1905258477712651</v>
+        <v>0.04713129950129682</v>
       </c>
       <c r="BA2">
-        <v>0.5013819105650653</v>
+        <v>0.6361754075068892</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>0.7382510651407719</v>
+        <v>-0.394485932656816</v>
       </c>
       <c r="AS3">
-        <v>0.5730631639856925</v>
+        <v>0.4884973078714244</v>
       </c>
       <c r="AT3">
-        <v>0.4671849155127843</v>
+        <v>0.221642858267479</v>
       </c>
       <c r="AU3">
-        <v>0.1783518637265254</v>
+        <v>0.456488388828089</v>
       </c>
       <c r="AV3">
-        <v>0.5508909905556447</v>
+        <v>-0.2012598648540541</v>
       </c>
       <c r="AW3">
-        <v>0.1684539539179462</v>
+        <v>0.4455648528507095</v>
       </c>
       <c r="AX3">
-        <v>0.1895306511869988</v>
+        <v>0.1221295520771107</v>
       </c>
       <c r="AY3">
-        <v>0.3041466845151066</v>
+        <v>0.04293851998065981</v>
       </c>
       <c r="AZ3">
-        <v>0.2364235664729734</v>
+        <v>0.2208999152239784</v>
       </c>
       <c r="BA3">
-        <v>0.07620084665712523</v>
+        <v>0.4436885164606705</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>0.2773470011655342</v>
+        <v>0.6119630908427581</v>
       </c>
       <c r="AS4">
-        <v>0.1183895460855266</v>
+        <v>0.3905111222360074</v>
       </c>
       <c r="AT4">
-        <v>0.1434755161847363</v>
+        <v>0.2938314210218012</v>
       </c>
       <c r="AU4">
-        <v>0.1350951696108981</v>
+        <v>0.04855359642193482</v>
       </c>
       <c r="AV4">
-        <v>0.1436773583013348</v>
+        <v>0.4140197419517433</v>
       </c>
       <c r="AW4">
-        <v>0.06041170839383903</v>
+        <v>0.03553631886126364</v>
       </c>
       <c r="AX4">
-        <v>0.116363654457554</v>
+        <v>0.07803534710207337</v>
       </c>
       <c r="AY4">
-        <v>0.2007308061935607</v>
+        <v>0.2183045770073796</v>
       </c>
       <c r="AZ4">
-        <v>0.1946698091965647</v>
+        <v>0.2641869441110163</v>
       </c>
       <c r="BA4">
-        <v>0.07888044278989834</v>
+        <v>0.0228205440441531</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>0.2809151543791467</v>
+        <v>0.4846814035399901</v>
       </c>
       <c r="AS5">
-        <v>0.3043083494374699</v>
+        <v>0.2926131504153344</v>
       </c>
       <c r="AT5">
-        <v>0.2818767534385324</v>
+        <v>0.3445144752280332</v>
       </c>
       <c r="AU5">
-        <v>0.2340622705880838</v>
+        <v>0.2338309616375578</v>
       </c>
       <c r="AV5">
-        <v>0.1771235948350179</v>
+        <v>0.3013006752613657</v>
       </c>
       <c r="AW5">
-        <v>0.1802223990394378</v>
+        <v>0.1633801582157783</v>
       </c>
       <c r="AX5">
-        <v>0.1571974495554938</v>
+        <v>0.1818619313706766</v>
       </c>
       <c r="AY5">
-        <v>0.2037980196905885</v>
+        <v>0.1861712041981687</v>
       </c>
       <c r="AZ5">
-        <v>0.1959846855376756</v>
+        <v>0.2226254385004955</v>
       </c>
       <c r="BA5">
-        <v>0.1398228546619164</v>
+        <v>0.1454695354913681</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>0.3767599263840103</v>
+        <v>0.2907066385446314</v>
       </c>
       <c r="AS6">
-        <v>0.3656212651393989</v>
+        <v>0.3406587378393717</v>
       </c>
       <c r="AT6">
-        <v>0.3072831438202427</v>
+        <v>0.3136229483785842</v>
       </c>
       <c r="AU6">
-        <v>0.2193532401214589</v>
+        <v>0.2695332690536329</v>
       </c>
       <c r="AV6">
-        <v>0.2497303509578564</v>
+        <v>0.203994564329755</v>
       </c>
       <c r="AW6">
-        <v>0.1711638410034269</v>
+        <v>0.2025511868646054</v>
       </c>
       <c r="AX6">
-        <v>0.159155547464795</v>
+        <v>0.1653185469908788</v>
       </c>
       <c r="AY6">
-        <v>0.2215154270717748</v>
+        <v>0.1634408952895245</v>
       </c>
       <c r="AZ6">
-        <v>0.2025487302824363</v>
+        <v>0.2250485314562521</v>
       </c>
       <c r="BA6">
-        <v>0.125660016200871</v>
+        <v>0.1910424935999793</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>0.3450470656633786</v>
+        <v>0.3714707020279144</v>
       </c>
       <c r="AS7">
-        <v>0.300793219845746</v>
+        <v>0.3474692917565351</v>
       </c>
       <c r="AT7">
-        <v>0.2718618832122298</v>
+        <v>0.3117323507447275</v>
       </c>
       <c r="AU7">
-        <v>0.2043277160414644</v>
+        <v>0.2246617674002979</v>
       </c>
       <c r="AV7">
-        <v>0.2226650785187192</v>
+        <v>0.2529182784354928</v>
       </c>
       <c r="AW7">
-        <v>0.1526011717862214</v>
+        <v>0.1709912603134681</v>
       </c>
       <c r="AX7">
-        <v>0.1524606091585821</v>
+        <v>0.1516616552684202</v>
       </c>
       <c r="AY7">
-        <v>0.2165638286552825</v>
+        <v>0.1742586593082817</v>
       </c>
       <c r="AZ7">
-        <v>0.2009441212685547</v>
+        <v>0.2318706213682649</v>
       </c>
       <c r="BA7">
-        <v>0.1200394112401401</v>
+        <v>0.1604052205521926</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>0.3351211006026806</v>
+        <v>0.3938031773181176</v>
       </c>
       <c r="AS8">
-        <v>0.3040341640425271</v>
+        <v>0.335544270597405</v>
       </c>
       <c r="AT8">
-        <v>0.2769988430313264</v>
+        <v>0.3190553404730083</v>
       </c>
       <c r="AU8">
-        <v>0.2105182075709662</v>
+        <v>0.2283886454840366</v>
       </c>
       <c r="AV8">
-        <v>0.2156284387029336</v>
+        <v>0.2601088906913595</v>
       </c>
       <c r="AW8">
-        <v>0.1584523174710807</v>
+        <v>0.1719851556012624</v>
       </c>
       <c r="AX8">
-        <v>0.1536763984215116</v>
+        <v>0.1575983818750111</v>
       </c>
       <c r="AY8">
-        <v>0.2146285213309605</v>
+        <v>0.1756583466455853</v>
       </c>
       <c r="AZ8">
-        <v>0.2002080325592566</v>
+        <v>0.2297732550850259</v>
       </c>
       <c r="BA8">
-        <v>0.123360023981435</v>
+        <v>0.159175101018302</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>0.3450015935953633</v>
+        <v>0.3695252185550706</v>
       </c>
       <c r="AS9">
-        <v>0.3195118899915987</v>
+        <v>0.3374943286342978</v>
       </c>
       <c r="AT9">
-        <v>0.2826846486444383</v>
+        <v>0.3172880882590564</v>
       </c>
       <c r="AU9">
-        <v>0.2118895653671757</v>
+        <v>0.2362974411302725</v>
       </c>
       <c r="AV9">
-        <v>0.2230472405860777</v>
+        <v>0.248113043295838</v>
       </c>
       <c r="AW9">
-        <v>0.1603005376728217</v>
+        <v>0.1771656833252462</v>
       </c>
       <c r="AX9">
-        <v>0.1544261705489796</v>
+        <v>0.1585267166381222</v>
       </c>
       <c r="AY9">
-        <v>0.215994343178177</v>
+        <v>0.1734700161652025</v>
       </c>
       <c r="AZ9">
-        <v>0.2006267615664449</v>
+        <v>0.229068295432461</v>
       </c>
       <c r="BA9">
-        <v>0.1234230825065799</v>
+        <v>0.1646608803161475</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>0.3438986969040266</v>
+        <v>0.3709638434711375</v>
       </c>
       <c r="AS10">
-        <v>0.3142106354758181</v>
+        <v>0.3394260263708191</v>
       </c>
       <c r="AT10">
-        <v>0.2799927983742383</v>
+        <v>0.3162119463766833</v>
       </c>
       <c r="AU10">
-        <v>0.2104228584162527</v>
+        <v>0.2336755985300533</v>
       </c>
       <c r="AV10">
-        <v>0.2223862008384985</v>
+        <v>0.2497910746463467</v>
       </c>
       <c r="AW10">
-        <v>0.1588646925603963</v>
+        <v>0.1757267001009318</v>
       </c>
       <c r="AX10">
-        <v>0.1540703021059819</v>
+        <v>0.1573132100897035</v>
       </c>
       <c r="AY10">
-        <v>0.2160007067113884</v>
+        <v>0.1737376830548807</v>
       </c>
       <c r="AZ10">
-        <v>0.2006587717324771</v>
+        <v>0.2296144803877474</v>
       </c>
       <c r="BA10">
-        <v>0.1229281461270465</v>
+        <v>0.1636996783146774</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>0.3421756259386405</v>
+        <v>0.3760797629022249</v>
       </c>
       <c r="AS11">
-        <v>0.3118259593550672</v>
+        <v>0.3384745434211183</v>
       </c>
       <c r="AT11">
-        <v>0.2796223017839808</v>
+        <v>0.316919171847526</v>
       </c>
       <c r="AU11">
-        <v>0.210505018274639</v>
+        <v>0.232751452518071</v>
       </c>
       <c r="AV11">
-        <v>0.2210778963124011</v>
+        <v>0.2518251963723678</v>
       </c>
       <c r="AW11">
-        <v>0.1588778422802715</v>
+        <v>0.1751886421764033</v>
       </c>
       <c r="AX11">
-        <v>0.1540360718290525</v>
+        <v>0.1574370579151948</v>
       </c>
       <c r="AY11">
-        <v>0.2157550617381989</v>
+        <v>0.1740523173161441</v>
       </c>
       <c r="AZ11">
-        <v>0.200583379142159</v>
+        <v>0.2296069135965982</v>
       </c>
       <c r="BA11">
-        <v>0.1230308894985729</v>
+        <v>0.1629695968671948</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1765,7 +1765,7 @@
         <v>0.00105707652823428</v>
       </c>
       <c r="AG53">
-        <v>2.19806877381355</v>
+        <v>1.064148304642897</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -1797,10 +1797,10 @@
         <v>1.094252934127212</v>
       </c>
       <c r="AG54">
-        <v>0.1679984577248602</v>
+        <v>1.65464643423161</v>
       </c>
       <c r="AH54">
-        <v>1.239183262778221</v>
+        <v>2.815303213245683</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -1829,13 +1829,13 @@
         <v>0.4444767583265247</v>
       </c>
       <c r="AG55">
-        <v>0.2609529067326807</v>
+        <v>-0.007480665961457522</v>
       </c>
       <c r="AH55">
-        <v>0.1822267366046079</v>
+        <v>0.4101188288144624</v>
       </c>
       <c r="AI55">
-        <v>1.849421814172693</v>
+        <v>0.6695474989784275</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -1861,16 +1861,16 @@
         <v>0.3866446549125384</v>
       </c>
       <c r="AG56">
-        <v>0.7685090051532232</v>
+        <v>0.4493200496657216</v>
       </c>
       <c r="AH56">
-        <v>0.4573809467524453</v>
+        <v>-0.07958912573294608</v>
       </c>
       <c r="AI56">
-        <v>1.346369358201942</v>
+        <v>0.07712680223366397</v>
       </c>
       <c r="AJ56">
-        <v>0.4727055409365047</v>
+        <v>-0.8302639870858292</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -1893,19 +1893,19 @@
         <v>0.5956472668896565</v>
       </c>
       <c r="AG57">
-        <v>0.5468317569736435</v>
+        <v>0.7330749705267524</v>
       </c>
       <c r="AH57">
-        <v>0.6983869767741709</v>
+        <v>0.7874825210913396</v>
       </c>
       <c r="AI57">
-        <v>-0.23216523258429</v>
+        <v>0.6988283439376566</v>
       </c>
       <c r="AJ57">
-        <v>0.7470530489953845</v>
+        <v>1.018409371995308</v>
       </c>
       <c r="AK57">
-        <v>0.6072235950435823</v>
+        <v>1.163233357403949</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -1925,22 +1925,22 @@
         <v>0.5300315601523962</v>
       </c>
       <c r="AG58">
-        <v>0.4968698750727842</v>
+        <v>0.5029228837222677</v>
       </c>
       <c r="AH58">
-        <v>0.5198005506992684</v>
+        <v>0.610837897184402</v>
       </c>
       <c r="AI58">
-        <v>0.5910862568474369</v>
+        <v>0.6563978856406073</v>
       </c>
       <c r="AJ58">
-        <v>0.7130347817762454</v>
+        <v>1.028925088656032</v>
       </c>
       <c r="AK58">
-        <v>0.4934841082100051</v>
+        <v>0.550721838197525</v>
       </c>
       <c r="AL58">
-        <v>1.976627195201172</v>
+        <v>1.617227961673185</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -1957,25 +1957,25 @@
         <v>0.4959250037186139</v>
       </c>
       <c r="AG59">
-        <v>0.5755997459858946</v>
+        <v>0.5110536887772539</v>
       </c>
       <c r="AH59">
-        <v>0.5077729390771093</v>
+        <v>0.4272835764662723</v>
       </c>
       <c r="AI59">
-        <v>0.7627185360959605</v>
+        <v>0.4641130320630779</v>
       </c>
       <c r="AJ59">
-        <v>0.6188693082003407</v>
+        <v>0.2913914241014903</v>
       </c>
       <c r="AK59">
-        <v>0.7514584068582184</v>
+        <v>0.4715724452472505</v>
       </c>
       <c r="AL59">
-        <v>0.1463892279297066</v>
+        <v>1.381840201698081</v>
       </c>
       <c r="AM59">
-        <v>0.2307459964317072</v>
+        <v>2.579237892831723</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -1989,28 +1989,28 @@
         <v>0.5281467481431354</v>
       </c>
       <c r="AG60">
-        <v>0.558453454549536</v>
+        <v>0.5708378528491826</v>
       </c>
       <c r="AH60">
-        <v>0.5701778009122539</v>
+        <v>0.544881410402426</v>
       </c>
       <c r="AI60">
-        <v>0.4223029414935768</v>
+        <v>0.5530088627380649</v>
       </c>
       <c r="AJ60">
-        <v>0.6734071369215505</v>
+        <v>0.5951497563813704</v>
       </c>
       <c r="AK60">
-        <v>0.6781936635843515</v>
+        <v>0.7565241646707257</v>
       </c>
       <c r="AL60">
-        <v>0.328141734103188</v>
+        <v>-0.08551743659749067</v>
       </c>
       <c r="AM60">
-        <v>0.2458070026110408</v>
+        <v>-0.01889072859910866</v>
       </c>
       <c r="AN60">
-        <v>-0.1810864643540264</v>
+        <v>-0.4587040045966982</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2021,31 +2021,31 @@
         <v>0.5252517652750027</v>
       </c>
       <c r="AG61">
-        <v>0.5440196639255299</v>
+        <v>0.5463925148334372</v>
       </c>
       <c r="AH61">
-        <v>0.5509566664146465</v>
+        <v>0.5544389395051152</v>
       </c>
       <c r="AI61">
-        <v>0.5083918476606349</v>
+        <v>0.5830640054900118</v>
       </c>
       <c r="AJ61">
-        <v>0.6870549722549396</v>
+        <v>0.760816867937438</v>
       </c>
       <c r="AK61">
-        <v>0.60442972491183</v>
+        <v>0.6582348924931578</v>
       </c>
       <c r="AL61">
-        <v>0.9814395293209806</v>
+        <v>0.7016402456898746</v>
       </c>
       <c r="AM61">
-        <v>0.9706271641162365</v>
+        <v>0.114243261632557</v>
       </c>
       <c r="AN61">
-        <v>1.759206277358068</v>
+        <v>-0.5424328364062188</v>
       </c>
       <c r="AO61">
-        <v>2.24998350988308</v>
+        <v>1.156411635873152</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2053,34 +2053,34 @@
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>0.5542071436360727</v>
+        <v>0.5391660624712877</v>
       </c>
       <c r="AH62">
-        <v>0.5378297295067127</v>
+        <v>0.5173003010336507</v>
       </c>
       <c r="AI62">
-        <v>0.5835834209741023</v>
+        <v>0.5415463155210753</v>
       </c>
       <c r="AJ62">
-        <v>0.6594437867256491</v>
+        <v>0.5711850976370861</v>
       </c>
       <c r="AK62">
-        <v>0.6697101712918954</v>
+        <v>0.5875137701395904</v>
       </c>
       <c r="AL62">
-        <v>0.6078375652976367</v>
+        <v>0.9156873029043111</v>
       </c>
       <c r="AM62">
-        <v>0.6472643551256656</v>
+        <v>1.093708970289668</v>
       </c>
       <c r="AN62">
-        <v>0.3840329060579353</v>
+        <v>1.635494756126981</v>
       </c>
       <c r="AO62">
-        <v>0.07138415970635564</v>
+        <v>1.704316924395889</v>
       </c>
       <c r="AP62">
-        <v>1.371945250113332</v>
+        <v>2.658567824320484</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -2088,34 +2088,34 @@
         <v>44972</v>
       </c>
       <c r="AH63">
-        <v>0.5489307764943846</v>
+        <v>0.5281332395112083</v>
       </c>
       <c r="AI63">
-        <v>0.5240868325221671</v>
+        <v>0.5475721971495455</v>
       </c>
       <c r="AJ63">
-        <v>0.6660511487683085</v>
+        <v>0.5846585670763975</v>
       </c>
       <c r="AK63">
-        <v>0.6700209121427984</v>
+        <v>0.6597970038732344</v>
       </c>
       <c r="AL63">
-        <v>0.516615853564061</v>
+        <v>0.5002717109346095</v>
       </c>
       <c r="AM63">
-        <v>0.5064683428124233</v>
+        <v>0.6071944601548015</v>
       </c>
       <c r="AN63">
-        <v>0.1640331878499182</v>
+        <v>0.6988216811783188</v>
       </c>
       <c r="AO63">
-        <v>0.01694390559627312</v>
+        <v>-0.1909835541363619</v>
       </c>
       <c r="AP63">
-        <v>0.4399097727585939</v>
+        <v>0.3757659003210628</v>
       </c>
       <c r="AQ63">
-        <v>0.8971844921995269</v>
+        <v>1.999806211986415</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AR2_50_9.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0575E1FA1F23056E1597DB53EF6A23C798F698AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53043CF4-889B-4E45-89BE-C77C8BBDBFBC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,17 +83,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -125,7 +139,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -159,6 +173,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -193,9 +208,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -368,14 +384,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -518,7 +537,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -526,124 +545,124 @@
         <v>1.181864257829536</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
       <c r="B3">
-        <v>0.449284657999484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48">
+        <v>0.44928465799948403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
       <c r="B4">
-        <v>0.25189082018593</v>
+        <v>0.25189082018593001</v>
       </c>
       <c r="C4">
-        <v>0.2260325250293646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48">
+        <v>0.22603252502936461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
       <c r="B5">
-        <v>0.3369748924392332</v>
+        <v>0.33697489243923318</v>
       </c>
       <c r="C5">
-        <v>0.8019039094591521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48">
+        <v>0.80190390945915213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
       <c r="B6">
-        <v>0.3343962630060434</v>
+        <v>0.33439626300604341</v>
       </c>
       <c r="C6">
-        <v>0.5881186643997732</v>
+        <v>0.58811866439977323</v>
       </c>
       <c r="D6">
-        <v>-0.8610804741081994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48">
+        <v>-0.86108047410819943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
       <c r="B7">
-        <v>0.3292187080673616</v>
+        <v>0.32921870806736159</v>
       </c>
       <c r="C7">
-        <v>0.584284129746441</v>
+        <v>0.58428412974644095</v>
       </c>
       <c r="D7">
-        <v>0.01765300138455728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48">
+        <v>1.765300138455728E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
       <c r="B8">
-        <v>0.3303450499444013</v>
+        <v>0.33034504994440128</v>
       </c>
       <c r="C8">
-        <v>0.6070723690903791</v>
+        <v>0.60707236909037909</v>
       </c>
       <c r="D8">
-        <v>1.056725485901583</v>
+        <v>1.0567254859015831</v>
       </c>
       <c r="E8">
-        <v>1.104864864443685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48">
+        <v>1.1048648644436849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
       <c r="B9">
-        <v>0.3304813027793503</v>
+        <v>0.33048130277935028</v>
       </c>
       <c r="C9">
-        <v>0.6016116921022628</v>
+        <v>0.60161169210226284</v>
       </c>
       <c r="D9">
         <v>0.5083529859324929</v>
       </c>
       <c r="E9">
-        <v>0.5481529752681156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48">
+        <v>0.54815297526811557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
       <c r="B10">
-        <v>0.3303813337959167</v>
+        <v>0.33038133379591672</v>
       </c>
       <c r="C10">
-        <v>0.6006897984719808</v>
+        <v>0.60068979847198078</v>
       </c>
       <c r="D10">
-        <v>0.5080144187388269</v>
+        <v>0.50801441873882691</v>
       </c>
       <c r="E10">
-        <v>0.3910386542993801</v>
+        <v>0.39103865429938012</v>
       </c>
       <c r="F10">
-        <v>0.8560767896573427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48">
+        <v>0.85607678965734268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
       <c r="B11">
-        <v>0.3303907203346931</v>
+        <v>0.33039072033469308</v>
       </c>
       <c r="C11">
         <v>0.6014834547126493</v>
@@ -655,61 +674,61 @@
         <v>0.555275254834947</v>
       </c>
       <c r="F11">
-        <v>0.7227962086149082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48">
+        <v>0.72279620861490823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
       <c r="C12">
-        <v>0.6013736753235341</v>
+        <v>0.60137367532353414</v>
       </c>
       <c r="D12">
         <v>0.5753252384403893</v>
       </c>
       <c r="E12">
-        <v>0.5293561626401903</v>
+        <v>0.52935616264019025</v>
       </c>
       <c r="F12">
         <v>0.3224356038350491</v>
       </c>
       <c r="G12">
-        <v>0.4705672615156953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48">
+        <v>0.47056726151569528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
       <c r="C13">
-        <v>0.6013209218082315</v>
+        <v>0.60132092180823149</v>
       </c>
       <c r="D13">
-        <v>0.5689727014849253</v>
+        <v>0.56897270148492529</v>
       </c>
       <c r="E13">
-        <v>0.5059450653438564</v>
+        <v>0.50594506534385641</v>
       </c>
       <c r="F13">
         <v>0.4939494624105098</v>
       </c>
       <c r="G13">
-        <v>0.2937635005221407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48">
+        <v>0.29376350052214067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
       <c r="D14">
-        <v>0.5787196370010877</v>
+        <v>0.57871963700108775</v>
       </c>
       <c r="E14">
-        <v>0.5191686784924546</v>
+        <v>0.51916867849245463</v>
       </c>
       <c r="F14">
-        <v>0.5135993523262747</v>
+        <v>0.51359935232627474</v>
       </c>
       <c r="G14">
         <v>0.5694209420034928</v>
@@ -718,58 +737,58 @@
         <v>1.356742328910223</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
       <c r="D15">
-        <v>0.5763896555264937</v>
+        <v>0.57638965552649368</v>
       </c>
       <c r="E15">
-        <v>0.5192041266242137</v>
+        <v>0.51920412662421367</v>
       </c>
       <c r="F15">
-        <v>0.4715974098365833</v>
+        <v>0.47159740983658333</v>
       </c>
       <c r="G15">
-        <v>0.5125171141331215</v>
+        <v>0.51251711413312151</v>
       </c>
       <c r="H15">
-        <v>0.5283177065097049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48">
+        <v>0.52831770650970489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
       <c r="E16">
-        <v>0.5165837999949324</v>
+        <v>0.51658379999493242</v>
       </c>
       <c r="F16">
-        <v>0.4827443218063144</v>
+        <v>0.48274432180631438</v>
       </c>
       <c r="G16">
-        <v>0.4753877066197378</v>
+        <v>0.47538770661973778</v>
       </c>
       <c r="H16">
         <v>0.1389006625649942</v>
       </c>
       <c r="I16">
-        <v>-0.3952712769989555</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>-0.39527127699895548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>41685</v>
       </c>
       <c r="E17">
-        <v>0.5174847229219766</v>
+        <v>0.51748472292197656</v>
       </c>
       <c r="F17">
-        <v>0.4872748969978183</v>
+        <v>0.48727489699781829</v>
       </c>
       <c r="G17">
-        <v>0.4995483335931019</v>
+        <v>0.49954833359310191</v>
       </c>
       <c r="H17">
         <v>0.4178148477966519</v>
@@ -778,127 +797,127 @@
         <v>0.3870707938120585</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>41774</v>
       </c>
       <c r="F18">
-        <v>0.483371829000499</v>
+        <v>0.48337182900049902</v>
       </c>
       <c r="G18">
-        <v>0.4989819137542482</v>
+        <v>0.49898191375424822</v>
       </c>
       <c r="H18">
-        <v>0.4035385563261998</v>
+        <v>0.40353855632619978</v>
       </c>
       <c r="I18">
-        <v>0.7119348886542711</v>
+        <v>0.71193488865427113</v>
       </c>
       <c r="J18">
-        <v>-0.3183815091335945</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>-0.31838150913359448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>41866</v>
       </c>
       <c r="F19">
-        <v>0.483857083303335</v>
+        <v>0.48385708330333499</v>
       </c>
       <c r="G19">
-        <v>0.4942354862395748</v>
+        <v>0.49423548623957481</v>
       </c>
       <c r="H19">
-        <v>0.3553877532845724</v>
+        <v>0.35538775328457239</v>
       </c>
       <c r="I19">
-        <v>0.4455703536125024</v>
+        <v>0.44557035361250241</v>
       </c>
       <c r="J19">
-        <v>0.3022880483253526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.30228804832535261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>41958</v>
       </c>
       <c r="G20">
-        <v>0.4959531971249246</v>
+        <v>0.49595319712492458</v>
       </c>
       <c r="H20">
-        <v>0.3732358314351267</v>
+        <v>0.37323583143512667</v>
       </c>
       <c r="I20">
-        <v>0.4625766433485433</v>
+        <v>0.46257664334854331</v>
       </c>
       <c r="J20">
-        <v>0.830622193529341</v>
+        <v>0.83062219352934097</v>
       </c>
       <c r="K20">
         <v>1.830980627824685</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42050</v>
       </c>
       <c r="G21">
-        <v>0.4963434630462299</v>
+        <v>0.49634346304622989</v>
       </c>
       <c r="H21">
-        <v>0.3767071055301445</v>
+        <v>0.37670710553014453</v>
       </c>
       <c r="I21">
-        <v>0.5126814075484167</v>
+        <v>0.51268140754841673</v>
       </c>
       <c r="J21">
-        <v>0.5500807084228311</v>
+        <v>0.55008070842283108</v>
       </c>
       <c r="K21">
-        <v>0.3415967527589315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.34159675275893148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42139</v>
       </c>
       <c r="H22">
-        <v>0.372245926722921</v>
+        <v>0.37224592672292101</v>
       </c>
       <c r="I22">
-        <v>0.4932023769868474</v>
+        <v>0.49320237698684738</v>
       </c>
       <c r="J22">
-        <v>0.5420571275228545</v>
+        <v>0.54205712752285451</v>
       </c>
       <c r="K22">
-        <v>0.3791630082666579</v>
+        <v>0.37916300826665789</v>
       </c>
       <c r="L22">
-        <v>0.03860908883120684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>3.8609088831206839E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>42231</v>
       </c>
       <c r="H23">
-        <v>0.3729947145729149</v>
+        <v>0.37299471457291489</v>
       </c>
       <c r="I23">
-        <v>0.4889548870144813</v>
+        <v>0.48895488701448131</v>
       </c>
       <c r="J23">
-        <v>0.5959293477671757</v>
+        <v>0.59592934776717565</v>
       </c>
       <c r="K23">
-        <v>0.6837300100127572</v>
+        <v>0.68373001001275724</v>
       </c>
       <c r="L23">
-        <v>0.4890396727515156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.48903967275151561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>42323</v>
       </c>
@@ -906,159 +925,159 @@
         <v>0.4943653496932523</v>
       </c>
       <c r="J24">
-        <v>0.5803728618298044</v>
+        <v>0.58037286182980441</v>
       </c>
       <c r="K24">
-        <v>0.5731377927382403</v>
+        <v>0.57313779273824028</v>
       </c>
       <c r="L24">
-        <v>0.702148880710646</v>
+        <v>0.70214888071064596</v>
       </c>
       <c r="M24">
         <v>1.191590898913955</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>42415</v>
       </c>
       <c r="I25">
-        <v>0.4935298919089315</v>
+        <v>0.49352989190893148</v>
       </c>
       <c r="J25">
-        <v>0.5754308929790526</v>
+        <v>0.57543089297905259</v>
       </c>
       <c r="K25">
         <v>0.5455208123711861</v>
       </c>
       <c r="L25">
-        <v>0.5372425356445028</v>
+        <v>0.53724253564450275</v>
       </c>
       <c r="M25">
-        <v>0.4892201676482221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>0.48922016764822213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>42505</v>
       </c>
       <c r="J26">
-        <v>0.5798393557748697</v>
+        <v>0.57983935577486967</v>
       </c>
       <c r="K26">
-        <v>0.5783781962778072</v>
+        <v>0.57837819627780718</v>
       </c>
       <c r="L26">
         <v>0.5441367504521476</v>
       </c>
       <c r="M26">
-        <v>0.4125466516720975</v>
+        <v>0.41254665167209748</v>
       </c>
       <c r="N26">
-        <v>-0.3064500153017192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>-0.30645001530171923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>42597</v>
       </c>
       <c r="J27">
-        <v>0.5793505272904831</v>
+        <v>0.57935052729048309</v>
       </c>
       <c r="K27">
-        <v>0.5731925245375076</v>
+        <v>0.57319252453750758</v>
       </c>
       <c r="L27">
-        <v>0.577375594885652</v>
+        <v>0.57737559488565204</v>
       </c>
       <c r="M27">
-        <v>0.5813770824746812</v>
+        <v>0.58137708247468123</v>
       </c>
       <c r="N27">
-        <v>0.4737286764891542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>0.47372867648915418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>42689</v>
       </c>
       <c r="K28">
-        <v>0.5679410494509453</v>
+        <v>0.56794104945094526</v>
       </c>
       <c r="L28">
-        <v>0.5652723854835197</v>
+        <v>0.56527238548351966</v>
       </c>
       <c r="M28">
-        <v>0.5410304391228541</v>
+        <v>0.54103043912285409</v>
       </c>
       <c r="N28">
-        <v>0.769162974000571</v>
+        <v>0.76916297400057099</v>
       </c>
       <c r="O28">
         <v>1.124787712453954</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>42781</v>
       </c>
       <c r="K29">
-        <v>0.5708144543997462</v>
+        <v>0.57081445439974621</v>
       </c>
       <c r="L29">
-        <v>0.5619962367454503</v>
+        <v>0.56199623674545029</v>
       </c>
       <c r="M29">
-        <v>0.5199443817061958</v>
+        <v>0.51994438170619584</v>
       </c>
       <c r="N29">
-        <v>0.5106150994379712</v>
+        <v>0.51061509943797123</v>
       </c>
       <c r="O29">
         <v>0.3786672026612008</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>42870</v>
       </c>
       <c r="L30">
-        <v>0.5656443704981708</v>
+        <v>0.56564437049817085</v>
       </c>
       <c r="M30">
-        <v>0.5351758505259057</v>
+        <v>0.53517585052590566</v>
       </c>
       <c r="N30">
-        <v>0.5329479662617003</v>
+        <v>0.53294796626170027</v>
       </c>
       <c r="O30">
-        <v>0.4424284054519049</v>
+        <v>0.44242840545190493</v>
       </c>
       <c r="P30">
-        <v>-0.07678086796118863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>-7.6780867961188631E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>42962</v>
       </c>
       <c r="L31">
-        <v>0.565182721203183</v>
+        <v>0.56518272120318302</v>
       </c>
       <c r="M31">
-        <v>0.5344286104910212</v>
+        <v>0.53442861049102119</v>
       </c>
       <c r="N31">
-        <v>0.5796002935055272</v>
+        <v>0.57960029350552722</v>
       </c>
       <c r="O31">
-        <v>0.5813583186921967</v>
+        <v>0.58135831869219667</v>
       </c>
       <c r="P31">
         <v>0.3789025532015497</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43054</v>
       </c>
@@ -1066,207 +1085,207 @@
         <v>0.5315667664904169</v>
       </c>
       <c r="N32">
-        <v>0.5598010725150969</v>
+        <v>0.55980107251509692</v>
       </c>
       <c r="O32">
         <v>0.522082900472008</v>
       </c>
       <c r="P32">
-        <v>0.7287830168848645</v>
+        <v>0.72878301688486447</v>
       </c>
       <c r="Q32">
-        <v>0.8881858640450545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33">
+        <v>0.88818586404505451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43146</v>
       </c>
       <c r="M33">
-        <v>0.5326685900190385</v>
+        <v>0.53266859001903855</v>
       </c>
       <c r="N33">
-        <v>0.556501897459143</v>
+        <v>0.55650189745914302</v>
       </c>
       <c r="O33">
-        <v>0.5117771929389365</v>
+        <v>0.51177719293893653</v>
       </c>
       <c r="P33">
-        <v>0.5211755994453859</v>
+        <v>0.52117559944538594</v>
       </c>
       <c r="Q33">
-        <v>0.6661585206271498</v>
+        <v>0.66615852062714975</v>
       </c>
       <c r="R33">
         <v>0.9432633076951239</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43235</v>
       </c>
       <c r="N34">
-        <v>0.5617005101470661</v>
+        <v>0.56170051014706612</v>
       </c>
       <c r="O34">
-        <v>0.5278611792233883</v>
+        <v>0.52786117922338827</v>
       </c>
       <c r="P34">
         <v>0.5148425798953945</v>
       </c>
       <c r="Q34">
-        <v>0.4641044716177677</v>
+        <v>0.46410447161776769</v>
       </c>
       <c r="R34">
-        <v>0.5491885422696965</v>
+        <v>0.54918854226969649</v>
       </c>
       <c r="S34">
-        <v>0.216347269123856</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33">
+        <v>0.21634726912385599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43327</v>
       </c>
       <c r="N35">
-        <v>0.5607008501994531</v>
+        <v>0.56070085019945315</v>
       </c>
       <c r="O35">
-        <v>0.524788540662342</v>
+        <v>0.52478854066234204</v>
       </c>
       <c r="P35">
-        <v>0.5602293143862935</v>
+        <v>0.56022931438629353</v>
       </c>
       <c r="Q35">
-        <v>0.572906356288117</v>
+        <v>0.57290635628811704</v>
       </c>
       <c r="R35">
-        <v>0.4082240606183304</v>
+        <v>0.40822406061833039</v>
       </c>
       <c r="S35">
-        <v>0.4037441157651773</v>
+        <v>0.40374411576517732</v>
       </c>
       <c r="T35">
-        <v>0.225587865103023</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33">
+        <v>0.22558786510302301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43419</v>
       </c>
       <c r="O36">
-        <v>0.5223511952674755</v>
+        <v>0.52235119526747553</v>
       </c>
       <c r="P36">
-        <v>0.5469640559215432</v>
+        <v>0.54696405592154318</v>
       </c>
       <c r="Q36">
-        <v>0.5804463459388491</v>
+        <v>0.58044634593884914</v>
       </c>
       <c r="R36">
-        <v>0.5341493012087608</v>
+        <v>0.53414930120876081</v>
       </c>
       <c r="S36">
-        <v>0.7038972268943428</v>
+        <v>0.70389722689434275</v>
       </c>
       <c r="T36">
-        <v>0.5130009937197794</v>
+        <v>0.51300099371977936</v>
       </c>
       <c r="U36">
-        <v>0.2512724053595163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33">
+        <v>0.25127240535951628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43511</v>
       </c>
       <c r="O37">
-        <v>0.5238097774372298</v>
+        <v>0.52380977743722978</v>
       </c>
       <c r="P37">
         <v>0.5417502551492126</v>
       </c>
       <c r="Q37">
-        <v>0.5557186763637627</v>
+        <v>0.55571867636376271</v>
       </c>
       <c r="R37">
-        <v>0.522832655229892</v>
+        <v>0.52283265522989197</v>
       </c>
       <c r="S37">
-        <v>0.5762255889539403</v>
+        <v>0.57622558895394027</v>
       </c>
       <c r="T37">
-        <v>0.5229180305800967</v>
+        <v>0.52291803058009667</v>
       </c>
       <c r="U37">
-        <v>0.4360926811517022</v>
+        <v>0.43609268115170219</v>
       </c>
       <c r="V37">
-        <v>0.03577024835926418</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33">
+        <v>3.5770248359264178E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43600</v>
       </c>
       <c r="P38">
-        <v>0.5461959808030172</v>
+        <v>0.54619598080301723</v>
       </c>
       <c r="Q38">
-        <v>0.5618967563489389</v>
+        <v>0.56189675634893888</v>
       </c>
       <c r="R38">
-        <v>0.5006067731073605</v>
+        <v>0.50060677310736046</v>
       </c>
       <c r="S38">
-        <v>0.5573865342583852</v>
+        <v>0.55738653425838525</v>
       </c>
       <c r="T38">
         <v>0.4630604031093643</v>
       </c>
       <c r="U38">
-        <v>0.5008327475173291</v>
+        <v>0.50083274751732909</v>
       </c>
       <c r="V38">
-        <v>0.2877414084198002</v>
+        <v>0.28774140841980023</v>
       </c>
       <c r="W38">
         <v>-0.1671349210011279</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43692</v>
       </c>
       <c r="P39">
-        <v>0.5458557995299786</v>
+        <v>0.54585579952997865</v>
       </c>
       <c r="Q39">
-        <v>0.5650501932502908</v>
+        <v>0.56505019325029082</v>
       </c>
       <c r="R39">
-        <v>0.510032596655691</v>
+        <v>0.51003259665569101</v>
       </c>
       <c r="S39">
-        <v>0.5877188916405691</v>
+        <v>0.58771889164056912</v>
       </c>
       <c r="T39">
-        <v>0.4750044105648732</v>
+        <v>0.47500441056487319</v>
       </c>
       <c r="U39">
-        <v>0.4489431657034728</v>
+        <v>0.44894316570347281</v>
       </c>
       <c r="V39">
-        <v>0.5445714160280191</v>
+        <v>0.54457141602801906</v>
       </c>
       <c r="W39">
         <v>0.2472542190896749</v>
       </c>
       <c r="X39">
-        <v>0.5497680518807572</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33">
+        <v>0.54976805188075717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43784</v>
       </c>
@@ -1274,31 +1293,31 @@
         <v>0.5627943204817405</v>
       </c>
       <c r="R40">
-        <v>0.5115813519895855</v>
+        <v>0.51158135198958554</v>
       </c>
       <c r="S40">
-        <v>0.5820909847809134</v>
+        <v>0.58209098478091337</v>
       </c>
       <c r="T40">
         <v>0.4842103813260914</v>
       </c>
       <c r="U40">
-        <v>0.4520108694997721</v>
+        <v>0.45201086949977209</v>
       </c>
       <c r="V40">
-        <v>0.3928366556661396</v>
+        <v>0.39283665566613962</v>
       </c>
       <c r="W40">
-        <v>0.6595637153388068</v>
+        <v>0.65956371533880676</v>
       </c>
       <c r="X40">
-        <v>0.8681579097729744</v>
+        <v>0.86815790977297436</v>
       </c>
       <c r="Y40">
-        <v>0.7225623086492217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33">
+        <v>0.72256230864922166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43876</v>
       </c>
@@ -1306,139 +1325,139 @@
         <v>0.5628509838378456</v>
       </c>
       <c r="R41">
-        <v>0.5091519792729648</v>
+        <v>0.50915197927296485</v>
       </c>
       <c r="S41">
-        <v>0.5779675908348345</v>
+        <v>0.57796759083483451</v>
       </c>
       <c r="T41">
         <v>0.4796764266596939</v>
       </c>
       <c r="U41">
-        <v>0.4605269087671305</v>
+        <v>0.46052690876713048</v>
       </c>
       <c r="V41">
-        <v>0.3724448867584247</v>
+        <v>0.37244488675842469</v>
       </c>
       <c r="W41">
-        <v>0.4209735638480637</v>
+        <v>0.42097356384806373</v>
       </c>
       <c r="X41">
-        <v>0.3771713102001449</v>
+        <v>0.37717131020014488</v>
       </c>
       <c r="Y41">
-        <v>0.3069633649536828</v>
+        <v>0.30696336495368282</v>
       </c>
       <c r="Z41">
         <v>0.579351902336813</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43966</v>
       </c>
       <c r="R42">
-        <v>0.5096105676964424</v>
+        <v>0.50961056769644242</v>
       </c>
       <c r="S42">
-        <v>0.5803094692689819</v>
+        <v>0.58030946926898186</v>
       </c>
       <c r="T42">
         <v>0.4788881977749036</v>
       </c>
       <c r="U42">
-        <v>0.4575455819268399</v>
+        <v>0.45754558192683992</v>
       </c>
       <c r="V42">
         <v>0.420221105089429</v>
       </c>
       <c r="W42">
-        <v>0.3878203760938151</v>
+        <v>0.38782037609381509</v>
       </c>
       <c r="X42">
-        <v>0.4660259794203436</v>
+        <v>0.46602597942034357</v>
       </c>
       <c r="Y42">
         <v>0.5847389160515013</v>
       </c>
       <c r="Z42">
-        <v>0.5190841941488837</v>
+        <v>0.51908419414888374</v>
       </c>
       <c r="AA42">
-        <v>-0.7659397876469156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33">
+        <v>-0.76593978764691562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44058</v>
       </c>
       <c r="S43">
-        <v>0.580388862293671</v>
+        <v>0.58038886229367104</v>
       </c>
       <c r="T43">
-        <v>0.4799794804471463</v>
+        <v>0.47997948044714628</v>
       </c>
       <c r="U43">
         <v>0.45685387634933</v>
       </c>
       <c r="V43">
-        <v>0.4102390406673267</v>
+        <v>0.41023904066732669</v>
       </c>
       <c r="W43">
-        <v>0.4609011160217713</v>
+        <v>0.46090111602177131</v>
       </c>
       <c r="X43">
-        <v>0.55529857072161</v>
+        <v>0.55529857072161004</v>
       </c>
       <c r="Y43">
-        <v>0.5876590103965036</v>
+        <v>0.58765901039650359</v>
       </c>
       <c r="Z43">
-        <v>0.5482033885693779</v>
+        <v>0.54820338856937789</v>
       </c>
       <c r="AA43">
-        <v>0.00105707652823428</v>
+        <v>1.05707652823428E-3</v>
       </c>
       <c r="AB43">
         <v>1.064148304642897</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44150</v>
       </c>
       <c r="T44">
-        <v>0.4798833532218056</v>
+        <v>0.47988335322180559</v>
       </c>
       <c r="U44">
-        <v>0.4575904463424501</v>
+        <v>0.45759044634245011</v>
       </c>
       <c r="V44">
-        <v>0.4005218708732997</v>
+        <v>0.40052187087329971</v>
       </c>
       <c r="W44">
-        <v>0.4466014500645089</v>
+        <v>0.44660145006450891</v>
       </c>
       <c r="X44">
-        <v>0.5034685758199917</v>
+        <v>0.50346857581999171</v>
       </c>
       <c r="Y44">
-        <v>0.5134463386610085</v>
+        <v>0.51344633866100853</v>
       </c>
       <c r="Z44">
-        <v>0.5541488119629353</v>
+        <v>0.55414881196293531</v>
       </c>
       <c r="AA44">
         <v>1.094252934127212</v>
       </c>
       <c r="AB44">
-        <v>1.65464643423161</v>
+        <v>1.6546464342316101</v>
       </c>
       <c r="AC44">
         <v>2.815303213245683</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44242</v>
       </c>
@@ -1446,649 +1465,649 @@
         <v>0.4575057721601225</v>
       </c>
       <c r="V45">
-        <v>0.4063844681739219</v>
+        <v>0.40638446817392188</v>
       </c>
       <c r="W45">
-        <v>0.4319144792683061</v>
+        <v>0.43191447926830612</v>
       </c>
       <c r="X45">
-        <v>0.4993166439970861</v>
+        <v>0.49931664399708608</v>
       </c>
       <c r="Y45">
-        <v>0.5411153928577748</v>
+        <v>0.54111539285777477</v>
       </c>
       <c r="Z45">
-        <v>0.5435960309914484</v>
+        <v>0.54359603099144838</v>
       </c>
       <c r="AA45">
-        <v>0.4444767583265247</v>
+        <v>0.44447675832652472</v>
       </c>
       <c r="AB45">
-        <v>-0.007480665961457522</v>
+        <v>-7.4806659614575222E-3</v>
       </c>
       <c r="AC45">
-        <v>0.4101188288144624</v>
+        <v>0.41011882881446238</v>
       </c>
       <c r="AD45">
-        <v>0.6695474989784275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33">
+        <v>0.66954749897842747</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44331</v>
       </c>
       <c r="V46">
-        <v>0.4071164724434925</v>
+        <v>0.40711647244349253</v>
       </c>
       <c r="W46">
-        <v>0.4402922115291318</v>
+        <v>0.44029221152913178</v>
       </c>
       <c r="X46">
-        <v>0.5133225765424239</v>
+        <v>0.51332257654242386</v>
       </c>
       <c r="Y46">
         <v>0.5500412147419369</v>
       </c>
       <c r="Z46">
-        <v>0.5459565839232965</v>
+        <v>0.54595658392329649</v>
       </c>
       <c r="AA46">
-        <v>0.3866446549125384</v>
+        <v>0.38664465491253841</v>
       </c>
       <c r="AB46">
-        <v>0.4493200496657216</v>
+        <v>0.44932004966572159</v>
       </c>
       <c r="AC46">
-        <v>-0.07958912573294608</v>
+        <v>-7.9589125732946076E-2</v>
       </c>
       <c r="AD46">
-        <v>0.07712680223366397</v>
+        <v>7.7126802233663971E-2</v>
       </c>
       <c r="AE46">
-        <v>-0.8302639870858292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33">
+        <v>-0.83026398708582916</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44423</v>
       </c>
       <c r="W47">
-        <v>0.4415113020397737</v>
+        <v>0.44151130203977368</v>
       </c>
       <c r="X47">
-        <v>0.5095892834590086</v>
+        <v>0.50958928345900856</v>
       </c>
       <c r="Y47">
-        <v>0.5393401203327666</v>
+        <v>0.53934012033276657</v>
       </c>
       <c r="Z47">
-        <v>0.5480483229115065</v>
+        <v>0.54804832291150651</v>
       </c>
       <c r="AA47">
-        <v>0.5956472668896565</v>
+        <v>0.59564726688965652</v>
       </c>
       <c r="AB47">
-        <v>0.7330749705267524</v>
+        <v>0.73307497052675241</v>
       </c>
       <c r="AC47">
-        <v>0.7874825210913396</v>
+        <v>0.78748252109133965</v>
       </c>
       <c r="AD47">
-        <v>0.6988283439376566</v>
+        <v>0.69882834393765658</v>
       </c>
       <c r="AE47">
         <v>1.018409371995308</v>
       </c>
       <c r="AF47">
-        <v>1.163233357403949</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33">
+        <v>1.1632333574039491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44515</v>
       </c>
       <c r="X48">
-        <v>0.5074485557622826</v>
+        <v>0.50744855576228265</v>
       </c>
       <c r="Y48">
-        <v>0.5410919207521777</v>
+        <v>0.54109192075217771</v>
       </c>
       <c r="Z48">
-        <v>0.5465751502029395</v>
+        <v>0.54657515020293945</v>
       </c>
       <c r="AA48">
-        <v>0.5300315601523962</v>
+        <v>0.53003156015239616</v>
       </c>
       <c r="AB48">
-        <v>0.5029228837222677</v>
+        <v>0.50292288372226768</v>
       </c>
       <c r="AC48">
-        <v>0.610837897184402</v>
+        <v>0.61083789718440196</v>
       </c>
       <c r="AD48">
         <v>0.6563978856406073</v>
       </c>
       <c r="AE48">
-        <v>1.028925088656032</v>
+        <v>1.0289250886560319</v>
       </c>
       <c r="AF48">
-        <v>0.550721838197525</v>
+        <v>0.55072183819752496</v>
       </c>
       <c r="AG48">
-        <v>1.617227961673185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:48">
+        <v>1.6172279616731851</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
       <c r="Y49">
-        <v>0.5432365317208088</v>
+        <v>0.54323653172080877</v>
       </c>
       <c r="Z49">
         <v>0.5465462798760875</v>
       </c>
       <c r="AA49">
-        <v>0.4959250037186139</v>
+        <v>0.49592500371861392</v>
       </c>
       <c r="AB49">
-        <v>0.5110536887772539</v>
+        <v>0.51105368877725388</v>
       </c>
       <c r="AC49">
         <v>0.4272835764662723</v>
       </c>
       <c r="AD49">
-        <v>0.4641130320630779</v>
+        <v>0.46411303206307791</v>
       </c>
       <c r="AE49">
-        <v>0.2913914241014903</v>
+        <v>0.29139142410149033</v>
       </c>
       <c r="AF49">
         <v>0.4715724452472505</v>
       </c>
       <c r="AG49">
-        <v>1.381840201698081</v>
+        <v>1.3818402016980811</v>
       </c>
       <c r="AH49">
-        <v>2.579237892831723</v>
-      </c>
-    </row>
-    <row r="50" spans="1:48">
+        <v>2.5792378928317228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
       <c r="Z50">
-        <v>0.5469758162437285</v>
+        <v>0.54697581624372849</v>
       </c>
       <c r="AA50">
-        <v>0.5281467481431354</v>
+        <v>0.52814674814313545</v>
       </c>
       <c r="AB50">
-        <v>0.5708378528491826</v>
+        <v>0.57083785284918265</v>
       </c>
       <c r="AC50">
-        <v>0.544881410402426</v>
+        <v>0.54488141040242599</v>
       </c>
       <c r="AD50">
-        <v>0.5530088627380649</v>
+        <v>0.55300886273806493</v>
       </c>
       <c r="AE50">
-        <v>0.5951497563813704</v>
+        <v>0.59514975638137035</v>
       </c>
       <c r="AF50">
         <v>0.7565241646707257</v>
       </c>
       <c r="AG50">
-        <v>-0.08551743659749067</v>
+        <v>-8.551743659749067E-2</v>
       </c>
       <c r="AH50">
-        <v>-0.01889072859910866</v>
+        <v>-1.8890728599108661E-2</v>
       </c>
       <c r="AI50">
-        <v>-0.4587040045966982</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48">
+        <v>-0.45870400459669819</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
       <c r="AA51">
-        <v>0.5252517652750027</v>
+        <v>0.52525176527500272</v>
       </c>
       <c r="AB51">
         <v>0.5463925148334372</v>
       </c>
       <c r="AC51">
-        <v>0.5544389395051152</v>
+        <v>0.55443893950511525</v>
       </c>
       <c r="AD51">
-        <v>0.5830640054900118</v>
+        <v>0.58306400549001181</v>
       </c>
       <c r="AE51">
-        <v>0.760816867937438</v>
+        <v>0.76081686793743797</v>
       </c>
       <c r="AF51">
-        <v>0.6582348924931578</v>
+        <v>0.65823489249315781</v>
       </c>
       <c r="AG51">
         <v>0.7016402456898746</v>
       </c>
       <c r="AH51">
-        <v>0.114243261632557</v>
+        <v>0.11424326163255701</v>
       </c>
       <c r="AI51">
-        <v>-0.5424328364062188</v>
+        <v>-0.54243283640621875</v>
       </c>
       <c r="AJ51">
         <v>1.156411635873152</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
       <c r="AB52">
-        <v>0.5391660624712877</v>
+        <v>0.53916606247128773</v>
       </c>
       <c r="AC52">
-        <v>0.5173003010336507</v>
+        <v>0.51730030103365066</v>
       </c>
       <c r="AD52">
-        <v>0.5415463155210753</v>
+        <v>0.54154631552107535</v>
       </c>
       <c r="AE52">
-        <v>0.5711850976370861</v>
+        <v>0.57118509763708614</v>
       </c>
       <c r="AF52">
-        <v>0.5875137701395904</v>
+        <v>0.58751377013959039</v>
       </c>
       <c r="AG52">
-        <v>0.9156873029043111</v>
+        <v>0.91568730290431111</v>
       </c>
       <c r="AH52">
-        <v>1.093708970289668</v>
+        <v>1.0937089702896681</v>
       </c>
       <c r="AI52">
         <v>1.635494756126981</v>
       </c>
       <c r="AJ52">
-        <v>1.704316924395889</v>
+        <v>1.7043169243958891</v>
       </c>
       <c r="AK52">
         <v>2.658567824320484</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
       <c r="AC53">
-        <v>0.5281332395112083</v>
+        <v>0.52813323951120827</v>
       </c>
       <c r="AD53">
-        <v>0.5475721971495455</v>
+        <v>0.54757219714954553</v>
       </c>
       <c r="AE53">
-        <v>0.5846585670763975</v>
+        <v>0.58465856707639752</v>
       </c>
       <c r="AF53">
-        <v>0.6597970038732344</v>
+        <v>0.65979700387323437</v>
       </c>
       <c r="AG53">
-        <v>0.5002717109346095</v>
+        <v>0.50027171093460954</v>
       </c>
       <c r="AH53">
         <v>0.6071944601548015</v>
       </c>
       <c r="AI53">
-        <v>0.6988216811783188</v>
+        <v>0.69882168117831878</v>
       </c>
       <c r="AJ53">
-        <v>-0.1909835541363619</v>
+        <v>-0.19098355413636189</v>
       </c>
       <c r="AK53">
-        <v>0.3757659003210628</v>
+        <v>0.37576590032106277</v>
       </c>
       <c r="AL53">
-        <v>1.999806211986415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:48">
+        <v>1.9998062119864151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
       <c r="AD54">
-        <v>0.5591737977496212</v>
+        <v>0.55917379774962117</v>
       </c>
       <c r="AE54">
-        <v>0.654237034821652</v>
+        <v>0.65423703482165196</v>
       </c>
       <c r="AF54">
-        <v>0.6554289440875106</v>
+        <v>0.65542894408751062</v>
       </c>
       <c r="AG54">
         <v>0.6110454483547445</v>
       </c>
       <c r="AH54">
-        <v>0.4309725919933812</v>
+        <v>0.43097259199338123</v>
       </c>
       <c r="AI54">
-        <v>0.1994345662456277</v>
+        <v>0.19943456624562769</v>
       </c>
       <c r="AJ54">
-        <v>0.3774247657288891</v>
+        <v>0.37742476572888911</v>
       </c>
       <c r="AK54">
-        <v>-0.2933563928175411</v>
+        <v>-0.29335639281754111</v>
       </c>
       <c r="AL54">
-        <v>0.8144766271589259</v>
+        <v>0.81447662715892588</v>
       </c>
       <c r="AM54">
-        <v>0.2327792178056682</v>
-      </c>
-    </row>
-    <row r="55" spans="1:48">
+        <v>0.23277921780566821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
       <c r="AE55">
-        <v>0.6198439568055503</v>
+        <v>0.61984395680555027</v>
       </c>
       <c r="AF55">
-        <v>0.6280762015333856</v>
+        <v>0.62807620153338561</v>
       </c>
       <c r="AG55">
-        <v>0.7245862795246452</v>
+        <v>0.72458627952464516</v>
       </c>
       <c r="AH55">
-        <v>0.7033709189469587</v>
+        <v>0.70337091894695869</v>
       </c>
       <c r="AI55">
-        <v>0.8168447309254308</v>
+        <v>0.81684473092543075</v>
       </c>
       <c r="AJ55">
-        <v>0.8476683143693634</v>
+        <v>0.84766831436936341</v>
       </c>
       <c r="AK55">
-        <v>0.8385190132193212</v>
+        <v>0.83851901321932121</v>
       </c>
       <c r="AL55">
-        <v>-0.08452011724551195</v>
+        <v>-8.452011724551195E-2</v>
       </c>
       <c r="AM55">
-        <v>-0.394485932656816</v>
+        <v>-0.39448593265681597</v>
       </c>
       <c r="AN55">
         <v>-0.1147171757997718</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
       <c r="AF56">
-        <v>0.6423699778827014</v>
+        <v>0.64236997788270145</v>
       </c>
       <c r="AG56">
-        <v>0.6267198868770051</v>
+        <v>0.62671988687700508</v>
       </c>
       <c r="AH56">
-        <v>0.6532929365422522</v>
+        <v>0.65329293654225218</v>
       </c>
       <c r="AI56">
-        <v>0.7516675111314349</v>
+        <v>0.75166751113143493</v>
       </c>
       <c r="AJ56">
-        <v>0.4459300699088113</v>
+        <v>0.44593006990881129</v>
       </c>
       <c r="AK56">
-        <v>0.6517691395826458</v>
+        <v>0.65176913958264582</v>
       </c>
       <c r="AL56">
-        <v>0.5539521529030413</v>
+        <v>0.55395215290304134</v>
       </c>
       <c r="AM56">
-        <v>0.6119630908427581</v>
+        <v>0.61196309084275813</v>
       </c>
       <c r="AN56">
-        <v>0.4884973078714244</v>
+        <v>0.48849730787142442</v>
       </c>
       <c r="AO56">
-        <v>0.5515032008145326</v>
-      </c>
-    </row>
-    <row r="57" spans="1:48">
+        <v>0.55150320081453263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
       <c r="AG57">
-        <v>0.6276160911158115</v>
+        <v>0.62761609111581151</v>
       </c>
       <c r="AH57">
-        <v>0.5665807906283493</v>
+        <v>0.56658079062834932</v>
       </c>
       <c r="AI57">
-        <v>0.5206861242509659</v>
+        <v>0.52068612425096594</v>
       </c>
       <c r="AJ57">
-        <v>0.4353427689600385</v>
+        <v>0.43534276896003848</v>
       </c>
       <c r="AK57">
-        <v>0.2930099741135935</v>
+        <v>0.29300997411359347</v>
       </c>
       <c r="AL57">
-        <v>0.5729772617718061</v>
+        <v>0.57297726177180608</v>
       </c>
       <c r="AM57">
-        <v>0.4846814035399901</v>
+        <v>0.48468140353999012</v>
       </c>
       <c r="AN57">
-        <v>0.3905111222360074</v>
+        <v>0.39051112223600742</v>
       </c>
       <c r="AO57">
-        <v>0.221642858267479</v>
+        <v>0.22164285826747901</v>
       </c>
       <c r="AP57">
-        <v>0.9038950622192856</v>
-      </c>
-    </row>
-    <row r="58" spans="1:48">
+        <v>0.90389506221928562</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
       <c r="AH58">
-        <v>0.624955497962315</v>
+        <v>0.62495549796231498</v>
       </c>
       <c r="AI58">
-        <v>0.6512201745823353</v>
+        <v>0.65122017458233528</v>
       </c>
       <c r="AJ58">
-        <v>0.588351616094173</v>
+        <v>0.58835161609417297</v>
       </c>
       <c r="AK58">
-        <v>0.5043101634971142</v>
+        <v>0.50431016349711422</v>
       </c>
       <c r="AL58">
-        <v>0.392987956191407</v>
+        <v>0.39298795619140697</v>
       </c>
       <c r="AM58">
-        <v>0.2907066385446314</v>
+        <v>0.29070663854463141</v>
       </c>
       <c r="AN58">
-        <v>0.2926131504153344</v>
+        <v>0.29261315041533442</v>
       </c>
       <c r="AO58">
-        <v>0.2938314210218012</v>
+        <v>0.29383142102180121</v>
       </c>
       <c r="AP58">
-        <v>0.456488388828089</v>
+        <v>0.45648838882808901</v>
       </c>
       <c r="AQ58">
-        <v>0.03846020027388297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48">
+        <v>3.8460200273882972E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
       <c r="AI59">
-        <v>0.6902617660955838</v>
+        <v>0.69026176609558376</v>
       </c>
       <c r="AJ59">
-        <v>0.5300099959623601</v>
+        <v>0.53000999596236009</v>
       </c>
       <c r="AK59">
-        <v>0.5586319582541105</v>
+        <v>0.55863195825411049</v>
       </c>
       <c r="AL59">
-        <v>0.4512444954314707</v>
+        <v>0.45124449543147072</v>
       </c>
       <c r="AM59">
-        <v>0.3714707020279144</v>
+        <v>0.37147070202791438</v>
       </c>
       <c r="AN59">
-        <v>0.3406587378393717</v>
+        <v>0.34065873783937167</v>
       </c>
       <c r="AO59">
-        <v>0.3445144752280332</v>
+        <v>0.34451447522803319</v>
       </c>
       <c r="AP59">
-        <v>0.04855359642193482</v>
+        <v>4.8553596421934818E-2</v>
       </c>
       <c r="AQ59">
-        <v>-0.2012598648540541</v>
+        <v>-0.20125986485405409</v>
       </c>
       <c r="AR59">
-        <v>0.6054080602529603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:48">
+        <v>0.60540806025296034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
       <c r="AJ60">
-        <v>0.4971144076380803</v>
+        <v>0.49711440763808029</v>
       </c>
       <c r="AK60">
-        <v>0.4568361952056323</v>
+        <v>0.45683619520563229</v>
       </c>
       <c r="AL60">
-        <v>0.4795678504900446</v>
+        <v>0.47956785049004458</v>
       </c>
       <c r="AM60">
-        <v>0.3938031773181176</v>
+        <v>0.39380317731811759</v>
       </c>
       <c r="AN60">
-        <v>0.3474692917565351</v>
+        <v>0.34746929175653513</v>
       </c>
       <c r="AO60">
-        <v>0.3136229483785842</v>
+        <v>0.31362294837858418</v>
       </c>
       <c r="AP60">
-        <v>0.2338309616375578</v>
+        <v>0.23383096163755779</v>
       </c>
       <c r="AQ60">
-        <v>0.4140197419517433</v>
+        <v>0.41401974195174329</v>
       </c>
       <c r="AR60">
-        <v>0.4455648528507095</v>
+        <v>0.44556485285070951</v>
       </c>
       <c r="AS60">
-        <v>0.678525445981071</v>
-      </c>
-    </row>
-    <row r="61" spans="1:48">
+        <v>0.67852544598107101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
       <c r="AK61">
-        <v>0.4758650180389987</v>
+        <v>0.47586501803899872</v>
       </c>
       <c r="AL61">
-        <v>0.4537767612101885</v>
+        <v>0.45377676121018851</v>
       </c>
       <c r="AM61">
-        <v>0.3695252185550706</v>
+        <v>0.36952521855507059</v>
       </c>
       <c r="AN61">
-        <v>0.335544270597405</v>
+        <v>0.33554427059740499</v>
       </c>
       <c r="AO61">
-        <v>0.3117323507447275</v>
+        <v>0.31173235074472749</v>
       </c>
       <c r="AP61">
         <v>0.2695332690536329</v>
       </c>
       <c r="AQ61">
-        <v>0.3013006752613657</v>
+        <v>0.30130067526136572</v>
       </c>
       <c r="AR61">
-        <v>0.03553631886126364</v>
+        <v>3.5536318861263641E-2</v>
       </c>
       <c r="AS61">
         <v>0.1221295520771107</v>
       </c>
       <c r="AT61">
-        <v>0.09306908518476864</v>
-      </c>
-    </row>
-    <row r="62" spans="1:48">
+        <v>9.3069085184768641E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
       <c r="AL62">
-        <v>0.4551772222362027</v>
+        <v>0.45517722223620272</v>
       </c>
       <c r="AM62">
-        <v>0.3709638434711375</v>
+        <v>0.37096384347113748</v>
       </c>
       <c r="AN62">
-        <v>0.3374943286342978</v>
+        <v>0.33749432863429779</v>
       </c>
       <c r="AO62">
-        <v>0.3190553404730083</v>
+        <v>0.31905534047300832</v>
       </c>
       <c r="AP62">
-        <v>0.2246617674002979</v>
+        <v>0.22466176740029789</v>
       </c>
       <c r="AQ62">
-        <v>0.203994564329755</v>
+        <v>0.20399456432975499</v>
       </c>
       <c r="AR62">
-        <v>0.1633801582157783</v>
+        <v>0.16338015821577831</v>
       </c>
       <c r="AS62">
-        <v>0.07803534710207337</v>
+        <v>7.8035347102073369E-2</v>
       </c>
       <c r="AT62">
-        <v>0.04293851998065981</v>
+        <v>4.2938519980659812E-2</v>
       </c>
       <c r="AU62">
-        <v>0.04713129950129682</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48">
+        <v>4.7131299501296818E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
       <c r="AM63">
-        <v>0.3760797629022249</v>
+        <v>0.37607976290222489</v>
       </c>
       <c r="AN63">
-        <v>0.3394260263708191</v>
+        <v>0.33942602637081909</v>
       </c>
       <c r="AO63">
-        <v>0.3172880882590564</v>
+        <v>0.31728808825905641</v>
       </c>
       <c r="AP63">
-        <v>0.2283886454840366</v>
+        <v>0.22838864548403659</v>
       </c>
       <c r="AQ63">
         <v>0.2529182784354928</v>
       </c>
       <c r="AR63">
-        <v>0.2025511868646054</v>
+        <v>0.20255118686460541</v>
       </c>
       <c r="AS63">
         <v>0.1818619313706766</v>
@@ -2097,53 +2116,53 @@
         <v>0.2183045770073796</v>
       </c>
       <c r="AU63">
-        <v>0.2208999152239784</v>
+        <v>0.22089991522397839</v>
       </c>
       <c r="AV63">
-        <v>0.6361754075068892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:48">
+        <v>0.63617540750688917</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
       <c r="AN64">
-        <v>0.3384745434211183</v>
+        <v>0.33847454342111832</v>
       </c>
       <c r="AO64">
-        <v>0.3162119463766833</v>
+        <v>0.31621194637668332</v>
       </c>
       <c r="AP64">
-        <v>0.2362974411302725</v>
+        <v>0.23629744113027251</v>
       </c>
       <c r="AQ64">
-        <v>0.2601088906913595</v>
+        <v>0.26010889069135951</v>
       </c>
       <c r="AR64">
-        <v>0.1709912603134681</v>
+        <v>0.17099126031346809</v>
       </c>
       <c r="AS64">
-        <v>0.1653185469908788</v>
+        <v>0.16531854699087881</v>
       </c>
       <c r="AT64">
-        <v>0.1861712041981687</v>
+        <v>0.18617120419816871</v>
       </c>
       <c r="AU64">
-        <v>0.2641869441110163</v>
+        <v>0.26418694411101629</v>
       </c>
       <c r="AV64">
-        <v>0.4436885164606705</v>
-      </c>
-    </row>
-    <row r="65" spans="1:48">
+        <v>0.44368851646067048</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
       <c r="AO65">
-        <v>0.316919171847526</v>
+        <v>0.31691917184752599</v>
       </c>
       <c r="AP65">
-        <v>0.2336755985300533</v>
+        <v>0.23367559853005329</v>
       </c>
       <c r="AQ65">
         <v>0.248113043295838</v>
@@ -2152,19 +2171,19 @@
         <v>0.1719851556012624</v>
       </c>
       <c r="AS65">
-        <v>0.1516616552684202</v>
+        <v>0.15166165526842021</v>
       </c>
       <c r="AT65">
-        <v>0.1634408952895245</v>
+        <v>0.16344089528952449</v>
       </c>
       <c r="AU65">
-        <v>0.2226254385004955</v>
+        <v>0.22262543850049549</v>
       </c>
       <c r="AV65">
-        <v>0.0228205440441531</v>
-      </c>
-    </row>
-    <row r="66" spans="1:48">
+        <v>2.2820544044153099E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2175,50 +2194,50 @@
         <v>0.2497910746463467</v>
       </c>
       <c r="AR66">
-        <v>0.1771656833252462</v>
+        <v>0.17716568332524621</v>
       </c>
       <c r="AS66">
         <v>0.1575983818750111</v>
       </c>
       <c r="AT66">
-        <v>0.1742586593082817</v>
+        <v>0.17425865930828169</v>
       </c>
       <c r="AU66">
-        <v>0.2250485314562521</v>
+        <v>0.22504853145625209</v>
       </c>
       <c r="AV66">
         <v>0.1454695354913681</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
       <c r="AQ67">
-        <v>0.2518251963723678</v>
+        <v>0.25182519637236778</v>
       </c>
       <c r="AR67">
         <v>0.1757267001009318</v>
       </c>
       <c r="AS67">
-        <v>0.1585267166381222</v>
+        <v>0.15852671663812221</v>
       </c>
       <c r="AT67">
         <v>0.1756583466455853</v>
       </c>
       <c r="AU67">
-        <v>0.2318706213682649</v>
+        <v>0.23187062136826489</v>
       </c>
       <c r="AV67">
         <v>0.1910424935999793</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
       <c r="AR68">
-        <v>0.1751886421764033</v>
+        <v>0.17518864217640329</v>
       </c>
       <c r="AS68">
         <v>0.1573132100897035</v>
@@ -2227,13 +2246,13 @@
         <v>0.1734700161652025</v>
       </c>
       <c r="AU68">
-        <v>0.2297732550850259</v>
+        <v>0.22977325508502591</v>
       </c>
       <c r="AV68">
-        <v>0.1604052205521926</v>
-      </c>
-    </row>
-    <row r="69" spans="1:48">
+        <v>0.16040522055219261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2241,16 +2260,16 @@
         <v>0.1574370579151948</v>
       </c>
       <c r="AT69">
-        <v>0.1737376830548807</v>
+        <v>0.17373768305488069</v>
       </c>
       <c r="AU69">
-        <v>0.229068295432461</v>
+        <v>0.22906829543246099</v>
       </c>
       <c r="AV69">
-        <v>0.159175101018302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:48">
+        <v>0.15917510101830201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2261,26 +2280,26 @@
         <v>0.2296144803877474</v>
       </c>
       <c r="AV70">
-        <v>0.1646608803161475</v>
-      </c>
-    </row>
-    <row r="71" spans="1:48">
+        <v>0.16466088031614751</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
       <c r="AU71">
-        <v>0.2296069135965982</v>
+        <v>0.22960691359659821</v>
       </c>
       <c r="AV71">
-        <v>0.1636996783146774</v>
-      </c>
-    </row>
-    <row r="72" spans="1:48">
+        <v>0.16369967831467741</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
-        <v>0.1629695968671948</v>
+        <v>0.16296959686719481</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_CONSTR_AR2_50_9.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0575E1FA1F23056E1597DB53EF6A23C798F698AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53043CF4-889B-4E45-89BE-C77C8BBDBFBC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,25 +77,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +125,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,7 +159,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,10 +193,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,17 +368,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -536,8 +517,11 @@
       <c r="AV1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="AW1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -545,124 +529,124 @@
         <v>1.181864257829536</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
       <c r="B3">
-        <v>0.44928465799948403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.449284657999484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
       <c r="B4">
-        <v>0.25189082018593001</v>
+        <v>0.25189082018593</v>
       </c>
       <c r="C4">
-        <v>0.22603252502936461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.2260325250293646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
       <c r="B5">
-        <v>0.33697489243923318</v>
+        <v>0.3369748924392332</v>
       </c>
       <c r="C5">
-        <v>0.80190390945915213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.8019039094591521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
       <c r="B6">
-        <v>0.33439626300604341</v>
+        <v>0.3343962630060434</v>
       </c>
       <c r="C6">
-        <v>0.58811866439977323</v>
+        <v>0.5881186643997732</v>
       </c>
       <c r="D6">
-        <v>-0.86108047410819943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+        <v>-0.8610804741081994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
       <c r="B7">
-        <v>0.32921870806736159</v>
+        <v>0.3292187080673616</v>
       </c>
       <c r="C7">
-        <v>0.58428412974644095</v>
+        <v>0.584284129746441</v>
       </c>
       <c r="D7">
-        <v>1.765300138455728E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.01765300138455728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
       <c r="B8">
-        <v>0.33034504994440128</v>
+        <v>0.3303450499444013</v>
       </c>
       <c r="C8">
-        <v>0.60707236909037909</v>
+        <v>0.6070723690903791</v>
       </c>
       <c r="D8">
-        <v>1.0567254859015831</v>
+        <v>1.056725485901583</v>
       </c>
       <c r="E8">
-        <v>1.1048648644436849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+        <v>1.104864864443685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
       <c r="B9">
-        <v>0.33048130277935028</v>
+        <v>0.3304813027793503</v>
       </c>
       <c r="C9">
-        <v>0.60161169210226284</v>
+        <v>0.6016116921022628</v>
       </c>
       <c r="D9">
         <v>0.5083529859324929</v>
       </c>
       <c r="E9">
-        <v>0.54815297526811557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.5481529752681156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
       <c r="B10">
-        <v>0.33038133379591672</v>
+        <v>0.3303813337959167</v>
       </c>
       <c r="C10">
-        <v>0.60068979847198078</v>
+        <v>0.6006897984719808</v>
       </c>
       <c r="D10">
-        <v>0.50801441873882691</v>
+        <v>0.5080144187388269</v>
       </c>
       <c r="E10">
-        <v>0.39103865429938012</v>
+        <v>0.3910386542993801</v>
       </c>
       <c r="F10">
-        <v>0.85607678965734268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.8560767896573427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
       <c r="B11">
-        <v>0.33039072033469308</v>
+        <v>0.3303907203346931</v>
       </c>
       <c r="C11">
         <v>0.6014834547126493</v>
@@ -674,61 +658,61 @@
         <v>0.555275254834947</v>
       </c>
       <c r="F11">
-        <v>0.72279620861490823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.7227962086149082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
       <c r="C12">
-        <v>0.60137367532353414</v>
+        <v>0.6013736753235341</v>
       </c>
       <c r="D12">
         <v>0.5753252384403893</v>
       </c>
       <c r="E12">
-        <v>0.52935616264019025</v>
+        <v>0.5293561626401903</v>
       </c>
       <c r="F12">
         <v>0.3224356038350491</v>
       </c>
       <c r="G12">
-        <v>0.47056726151569528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.4705672615156953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
       <c r="C13">
-        <v>0.60132092180823149</v>
+        <v>0.6013209218082315</v>
       </c>
       <c r="D13">
-        <v>0.56897270148492529</v>
+        <v>0.5689727014849253</v>
       </c>
       <c r="E13">
-        <v>0.50594506534385641</v>
+        <v>0.5059450653438564</v>
       </c>
       <c r="F13">
         <v>0.4939494624105098</v>
       </c>
       <c r="G13">
-        <v>0.29376350052214067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.2937635005221407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
       <c r="D14">
-        <v>0.57871963700108775</v>
+        <v>0.5787196370010877</v>
       </c>
       <c r="E14">
-        <v>0.51916867849245463</v>
+        <v>0.5191686784924546</v>
       </c>
       <c r="F14">
-        <v>0.51359935232627474</v>
+        <v>0.5135993523262747</v>
       </c>
       <c r="G14">
         <v>0.5694209420034928</v>
@@ -737,58 +721,58 @@
         <v>1.356742328910223</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
       <c r="D15">
-        <v>0.57638965552649368</v>
+        <v>0.5763896555264937</v>
       </c>
       <c r="E15">
-        <v>0.51920412662421367</v>
+        <v>0.5192041266242137</v>
       </c>
       <c r="F15">
-        <v>0.47159740983658333</v>
+        <v>0.4715974098365833</v>
       </c>
       <c r="G15">
-        <v>0.51251711413312151</v>
+        <v>0.5125171141331215</v>
       </c>
       <c r="H15">
-        <v>0.52831770650970489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.5283177065097049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
       <c r="E16">
-        <v>0.51658379999493242</v>
+        <v>0.5165837999949324</v>
       </c>
       <c r="F16">
-        <v>0.48274432180631438</v>
+        <v>0.4827443218063144</v>
       </c>
       <c r="G16">
-        <v>0.47538770661973778</v>
+        <v>0.4753877066197378</v>
       </c>
       <c r="H16">
         <v>0.1389006625649942</v>
       </c>
       <c r="I16">
-        <v>-0.39527127699895548</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-0.3952712769989555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>41685</v>
       </c>
       <c r="E17">
-        <v>0.51748472292197656</v>
+        <v>0.5174847229219766</v>
       </c>
       <c r="F17">
-        <v>0.48727489699781829</v>
+        <v>0.4872748969978183</v>
       </c>
       <c r="G17">
-        <v>0.49954833359310191</v>
+        <v>0.4995483335931019</v>
       </c>
       <c r="H17">
         <v>0.4178148477966519</v>
@@ -797,127 +781,127 @@
         <v>0.3870707938120585</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>41774</v>
       </c>
       <c r="F18">
-        <v>0.48337182900049902</v>
+        <v>0.483371829000499</v>
       </c>
       <c r="G18">
-        <v>0.49898191375424822</v>
+        <v>0.4989819137542482</v>
       </c>
       <c r="H18">
-        <v>0.40353855632619978</v>
+        <v>0.4035385563261998</v>
       </c>
       <c r="I18">
-        <v>0.71193488865427113</v>
+        <v>0.7119348886542711</v>
       </c>
       <c r="J18">
-        <v>-0.31838150913359448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-0.3183815091335945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>41866</v>
       </c>
       <c r="F19">
-        <v>0.48385708330333499</v>
+        <v>0.483857083303335</v>
       </c>
       <c r="G19">
-        <v>0.49423548623957481</v>
+        <v>0.4942354862395748</v>
       </c>
       <c r="H19">
-        <v>0.35538775328457239</v>
+        <v>0.3553877532845724</v>
       </c>
       <c r="I19">
-        <v>0.44557035361250241</v>
+        <v>0.4455703536125024</v>
       </c>
       <c r="J19">
-        <v>0.30228804832535261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.3022880483253526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>41958</v>
       </c>
       <c r="G20">
-        <v>0.49595319712492458</v>
+        <v>0.4959531971249246</v>
       </c>
       <c r="H20">
-        <v>0.37323583143512667</v>
+        <v>0.3732358314351267</v>
       </c>
       <c r="I20">
-        <v>0.46257664334854331</v>
+        <v>0.4625766433485433</v>
       </c>
       <c r="J20">
-        <v>0.83062219352934097</v>
+        <v>0.830622193529341</v>
       </c>
       <c r="K20">
         <v>1.830980627824685</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>42050</v>
       </c>
       <c r="G21">
-        <v>0.49634346304622989</v>
+        <v>0.4963434630462299</v>
       </c>
       <c r="H21">
-        <v>0.37670710553014453</v>
+        <v>0.3767071055301445</v>
       </c>
       <c r="I21">
-        <v>0.51268140754841673</v>
+        <v>0.5126814075484167</v>
       </c>
       <c r="J21">
-        <v>0.55008070842283108</v>
+        <v>0.5500807084228311</v>
       </c>
       <c r="K21">
-        <v>0.34159675275893148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.3415967527589315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>42139</v>
       </c>
       <c r="H22">
-        <v>0.37224592672292101</v>
+        <v>0.372245926722921</v>
       </c>
       <c r="I22">
-        <v>0.49320237698684738</v>
+        <v>0.4932023769868474</v>
       </c>
       <c r="J22">
-        <v>0.54205712752285451</v>
+        <v>0.5420571275228545</v>
       </c>
       <c r="K22">
-        <v>0.37916300826665789</v>
+        <v>0.3791630082666579</v>
       </c>
       <c r="L22">
-        <v>3.8609088831206839E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.03860908883120684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>42231</v>
       </c>
       <c r="H23">
-        <v>0.37299471457291489</v>
+        <v>0.3729947145729149</v>
       </c>
       <c r="I23">
-        <v>0.48895488701448131</v>
+        <v>0.4889548870144813</v>
       </c>
       <c r="J23">
-        <v>0.59592934776717565</v>
+        <v>0.5959293477671757</v>
       </c>
       <c r="K23">
-        <v>0.68373001001275724</v>
+        <v>0.6837300100127572</v>
       </c>
       <c r="L23">
-        <v>0.48903967275151561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.4890396727515156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>42323</v>
       </c>
@@ -925,159 +909,159 @@
         <v>0.4943653496932523</v>
       </c>
       <c r="J24">
-        <v>0.58037286182980441</v>
+        <v>0.5803728618298044</v>
       </c>
       <c r="K24">
-        <v>0.57313779273824028</v>
+        <v>0.5731377927382403</v>
       </c>
       <c r="L24">
-        <v>0.70214888071064596</v>
+        <v>0.702148880710646</v>
       </c>
       <c r="M24">
         <v>1.191590898913955</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>42415</v>
       </c>
       <c r="I25">
-        <v>0.49352989190893148</v>
+        <v>0.4935298919089315</v>
       </c>
       <c r="J25">
-        <v>0.57543089297905259</v>
+        <v>0.5754308929790526</v>
       </c>
       <c r="K25">
         <v>0.5455208123711861</v>
       </c>
       <c r="L25">
-        <v>0.53724253564450275</v>
+        <v>0.5372425356445028</v>
       </c>
       <c r="M25">
-        <v>0.48922016764822213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.4892201676482221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>42505</v>
       </c>
       <c r="J26">
-        <v>0.57983935577486967</v>
+        <v>0.5798393557748697</v>
       </c>
       <c r="K26">
-        <v>0.57837819627780718</v>
+        <v>0.5783781962778072</v>
       </c>
       <c r="L26">
         <v>0.5441367504521476</v>
       </c>
       <c r="M26">
-        <v>0.41254665167209748</v>
+        <v>0.4125466516720975</v>
       </c>
       <c r="N26">
-        <v>-0.30645001530171923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-0.3064500153017192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>42597</v>
       </c>
       <c r="J27">
-        <v>0.57935052729048309</v>
+        <v>0.5793505272904831</v>
       </c>
       <c r="K27">
-        <v>0.57319252453750758</v>
+        <v>0.5731925245375076</v>
       </c>
       <c r="L27">
-        <v>0.57737559488565204</v>
+        <v>0.577375594885652</v>
       </c>
       <c r="M27">
-        <v>0.58137708247468123</v>
+        <v>0.5813770824746812</v>
       </c>
       <c r="N27">
-        <v>0.47372867648915418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.4737286764891542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>42689</v>
       </c>
       <c r="K28">
-        <v>0.56794104945094526</v>
+        <v>0.5679410494509453</v>
       </c>
       <c r="L28">
-        <v>0.56527238548351966</v>
+        <v>0.5652723854835197</v>
       </c>
       <c r="M28">
-        <v>0.54103043912285409</v>
+        <v>0.5410304391228541</v>
       </c>
       <c r="N28">
-        <v>0.76916297400057099</v>
+        <v>0.769162974000571</v>
       </c>
       <c r="O28">
         <v>1.124787712453954</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>42781</v>
       </c>
       <c r="K29">
-        <v>0.57081445439974621</v>
+        <v>0.5708144543997462</v>
       </c>
       <c r="L29">
-        <v>0.56199623674545029</v>
+        <v>0.5619962367454503</v>
       </c>
       <c r="M29">
-        <v>0.51994438170619584</v>
+        <v>0.5199443817061958</v>
       </c>
       <c r="N29">
-        <v>0.51061509943797123</v>
+        <v>0.5106150994379712</v>
       </c>
       <c r="O29">
         <v>0.3786672026612008</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>42870</v>
       </c>
       <c r="L30">
-        <v>0.56564437049817085</v>
+        <v>0.5656443704981708</v>
       </c>
       <c r="M30">
-        <v>0.53517585052590566</v>
+        <v>0.5351758505259057</v>
       </c>
       <c r="N30">
-        <v>0.53294796626170027</v>
+        <v>0.5329479662617003</v>
       </c>
       <c r="O30">
-        <v>0.44242840545190493</v>
+        <v>0.4424284054519049</v>
       </c>
       <c r="P30">
-        <v>-7.6780867961188631E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-0.07678086796118863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>42962</v>
       </c>
       <c r="L31">
-        <v>0.56518272120318302</v>
+        <v>0.565182721203183</v>
       </c>
       <c r="M31">
-        <v>0.53442861049102119</v>
+        <v>0.5344286104910212</v>
       </c>
       <c r="N31">
-        <v>0.57960029350552722</v>
+        <v>0.5796002935055272</v>
       </c>
       <c r="O31">
-        <v>0.58135831869219667</v>
+        <v>0.5813583186921967</v>
       </c>
       <c r="P31">
         <v>0.3789025532015497</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>43054</v>
       </c>
@@ -1085,207 +1069,207 @@
         <v>0.5315667664904169</v>
       </c>
       <c r="N32">
-        <v>0.55980107251509692</v>
+        <v>0.5598010725150969</v>
       </c>
       <c r="O32">
         <v>0.522082900472008</v>
       </c>
       <c r="P32">
-        <v>0.72878301688486447</v>
+        <v>0.7287830168848645</v>
       </c>
       <c r="Q32">
-        <v>0.88818586404505451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.8881858640450545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="1">
         <v>43146</v>
       </c>
       <c r="M33">
-        <v>0.53266859001903855</v>
+        <v>0.5326685900190385</v>
       </c>
       <c r="N33">
-        <v>0.55650189745914302</v>
+        <v>0.556501897459143</v>
       </c>
       <c r="O33">
-        <v>0.51177719293893653</v>
+        <v>0.5117771929389365</v>
       </c>
       <c r="P33">
-        <v>0.52117559944538594</v>
+        <v>0.5211755994453859</v>
       </c>
       <c r="Q33">
-        <v>0.66615852062714975</v>
+        <v>0.6661585206271498</v>
       </c>
       <c r="R33">
         <v>0.9432633076951239</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33">
       <c r="A34" s="1">
         <v>43235</v>
       </c>
       <c r="N34">
-        <v>0.56170051014706612</v>
+        <v>0.5617005101470661</v>
       </c>
       <c r="O34">
-        <v>0.52786117922338827</v>
+        <v>0.5278611792233883</v>
       </c>
       <c r="P34">
         <v>0.5148425798953945</v>
       </c>
       <c r="Q34">
-        <v>0.46410447161776769</v>
+        <v>0.4641044716177677</v>
       </c>
       <c r="R34">
-        <v>0.54918854226969649</v>
+        <v>0.5491885422696965</v>
       </c>
       <c r="S34">
-        <v>0.21634726912385599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.216347269123856</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" s="1">
         <v>43327</v>
       </c>
       <c r="N35">
-        <v>0.56070085019945315</v>
+        <v>0.5607008501994531</v>
       </c>
       <c r="O35">
-        <v>0.52478854066234204</v>
+        <v>0.524788540662342</v>
       </c>
       <c r="P35">
-        <v>0.56022931438629353</v>
+        <v>0.5602293143862935</v>
       </c>
       <c r="Q35">
-        <v>0.57290635628811704</v>
+        <v>0.572906356288117</v>
       </c>
       <c r="R35">
-        <v>0.40822406061833039</v>
+        <v>0.4082240606183304</v>
       </c>
       <c r="S35">
-        <v>0.40374411576517732</v>
+        <v>0.4037441157651773</v>
       </c>
       <c r="T35">
-        <v>0.22558786510302301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.225587865103023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" s="1">
         <v>43419</v>
       </c>
       <c r="O36">
-        <v>0.52235119526747553</v>
+        <v>0.5223511952674755</v>
       </c>
       <c r="P36">
-        <v>0.54696405592154318</v>
+        <v>0.5469640559215432</v>
       </c>
       <c r="Q36">
-        <v>0.58044634593884914</v>
+        <v>0.5804463459388491</v>
       </c>
       <c r="R36">
-        <v>0.53414930120876081</v>
+        <v>0.5341493012087608</v>
       </c>
       <c r="S36">
-        <v>0.70389722689434275</v>
+        <v>0.7038972268943428</v>
       </c>
       <c r="T36">
-        <v>0.51300099371977936</v>
+        <v>0.5130009937197794</v>
       </c>
       <c r="U36">
-        <v>0.25127240535951628</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.2512724053595163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" s="1">
         <v>43511</v>
       </c>
       <c r="O37">
-        <v>0.52380977743722978</v>
+        <v>0.5238097774372298</v>
       </c>
       <c r="P37">
         <v>0.5417502551492126</v>
       </c>
       <c r="Q37">
-        <v>0.55571867636376271</v>
+        <v>0.5557186763637627</v>
       </c>
       <c r="R37">
-        <v>0.52283265522989197</v>
+        <v>0.522832655229892</v>
       </c>
       <c r="S37">
-        <v>0.57622558895394027</v>
+        <v>0.5762255889539403</v>
       </c>
       <c r="T37">
-        <v>0.52291803058009667</v>
+        <v>0.5229180305800967</v>
       </c>
       <c r="U37">
-        <v>0.43609268115170219</v>
+        <v>0.4360926811517022</v>
       </c>
       <c r="V37">
-        <v>3.5770248359264178E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.03577024835926418</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" s="1">
         <v>43600</v>
       </c>
       <c r="P38">
-        <v>0.54619598080301723</v>
+        <v>0.5461959808030172</v>
       </c>
       <c r="Q38">
-        <v>0.56189675634893888</v>
+        <v>0.5618967563489389</v>
       </c>
       <c r="R38">
-        <v>0.50060677310736046</v>
+        <v>0.5006067731073605</v>
       </c>
       <c r="S38">
-        <v>0.55738653425838525</v>
+        <v>0.5573865342583852</v>
       </c>
       <c r="T38">
         <v>0.4630604031093643</v>
       </c>
       <c r="U38">
-        <v>0.50083274751732909</v>
+        <v>0.5008327475173291</v>
       </c>
       <c r="V38">
-        <v>0.28774140841980023</v>
+        <v>0.2877414084198002</v>
       </c>
       <c r="W38">
         <v>-0.1671349210011279</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33">
       <c r="A39" s="1">
         <v>43692</v>
       </c>
       <c r="P39">
-        <v>0.54585579952997865</v>
+        <v>0.5458557995299786</v>
       </c>
       <c r="Q39">
-        <v>0.56505019325029082</v>
+        <v>0.5650501932502908</v>
       </c>
       <c r="R39">
-        <v>0.51003259665569101</v>
+        <v>0.510032596655691</v>
       </c>
       <c r="S39">
-        <v>0.58771889164056912</v>
+        <v>0.5877188916405691</v>
       </c>
       <c r="T39">
-        <v>0.47500441056487319</v>
+        <v>0.4750044105648732</v>
       </c>
       <c r="U39">
-        <v>0.44894316570347281</v>
+        <v>0.4489431657034728</v>
       </c>
       <c r="V39">
-        <v>0.54457141602801906</v>
+        <v>0.5445714160280191</v>
       </c>
       <c r="W39">
         <v>0.2472542190896749</v>
       </c>
       <c r="X39">
-        <v>0.54976805188075717</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.5497680518807572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" s="1">
         <v>43784</v>
       </c>
@@ -1293,31 +1277,31 @@
         <v>0.5627943204817405</v>
       </c>
       <c r="R40">
-        <v>0.51158135198958554</v>
+        <v>0.5115813519895855</v>
       </c>
       <c r="S40">
-        <v>0.58209098478091337</v>
+        <v>0.5820909847809134</v>
       </c>
       <c r="T40">
         <v>0.4842103813260914</v>
       </c>
       <c r="U40">
-        <v>0.45201086949977209</v>
+        <v>0.4520108694997721</v>
       </c>
       <c r="V40">
-        <v>0.39283665566613962</v>
+        <v>0.3928366556661396</v>
       </c>
       <c r="W40">
-        <v>0.65956371533880676</v>
+        <v>0.6595637153388068</v>
       </c>
       <c r="X40">
-        <v>0.86815790977297436</v>
+        <v>0.8681579097729744</v>
       </c>
       <c r="Y40">
-        <v>0.72256230864922166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.7225623086492217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" s="1">
         <v>43876</v>
       </c>
@@ -1325,139 +1309,139 @@
         <v>0.5628509838378456</v>
       </c>
       <c r="R41">
-        <v>0.50915197927296485</v>
+        <v>0.5091519792729648</v>
       </c>
       <c r="S41">
-        <v>0.57796759083483451</v>
+        <v>0.5779675908348345</v>
       </c>
       <c r="T41">
         <v>0.4796764266596939</v>
       </c>
       <c r="U41">
-        <v>0.46052690876713048</v>
+        <v>0.4605269087671305</v>
       </c>
       <c r="V41">
-        <v>0.37244488675842469</v>
+        <v>0.3724448867584247</v>
       </c>
       <c r="W41">
-        <v>0.42097356384806373</v>
+        <v>0.4209735638480637</v>
       </c>
       <c r="X41">
-        <v>0.37717131020014488</v>
+        <v>0.3771713102001449</v>
       </c>
       <c r="Y41">
-        <v>0.30696336495368282</v>
+        <v>0.3069633649536828</v>
       </c>
       <c r="Z41">
         <v>0.579351902336813</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33">
       <c r="A42" s="1">
         <v>43966</v>
       </c>
       <c r="R42">
-        <v>0.50961056769644242</v>
+        <v>0.5096105676964424</v>
       </c>
       <c r="S42">
-        <v>0.58030946926898186</v>
+        <v>0.5803094692689819</v>
       </c>
       <c r="T42">
         <v>0.4788881977749036</v>
       </c>
       <c r="U42">
-        <v>0.45754558192683992</v>
+        <v>0.4575455819268399</v>
       </c>
       <c r="V42">
         <v>0.420221105089429</v>
       </c>
       <c r="W42">
-        <v>0.38782037609381509</v>
+        <v>0.3878203760938151</v>
       </c>
       <c r="X42">
-        <v>0.46602597942034357</v>
+        <v>0.4660259794203436</v>
       </c>
       <c r="Y42">
         <v>0.5847389160515013</v>
       </c>
       <c r="Z42">
-        <v>0.51908419414888374</v>
+        <v>0.5190841941488837</v>
       </c>
       <c r="AA42">
-        <v>-0.76593978764691562</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+        <v>-0.7659397876469156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" s="1">
         <v>44058</v>
       </c>
       <c r="S43">
-        <v>0.58038886229367104</v>
+        <v>0.580388862293671</v>
       </c>
       <c r="T43">
-        <v>0.47997948044714628</v>
+        <v>0.4799794804471463</v>
       </c>
       <c r="U43">
         <v>0.45685387634933</v>
       </c>
       <c r="V43">
-        <v>0.41023904066732669</v>
+        <v>0.4102390406673267</v>
       </c>
       <c r="W43">
-        <v>0.46090111602177131</v>
+        <v>0.4609011160217713</v>
       </c>
       <c r="X43">
-        <v>0.55529857072161004</v>
+        <v>0.55529857072161</v>
       </c>
       <c r="Y43">
-        <v>0.58765901039650359</v>
+        <v>0.5876590103965036</v>
       </c>
       <c r="Z43">
-        <v>0.54820338856937789</v>
+        <v>0.5482033885693779</v>
       </c>
       <c r="AA43">
-        <v>1.05707652823428E-3</v>
+        <v>0.00105707652823428</v>
       </c>
       <c r="AB43">
         <v>1.064148304642897</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33">
       <c r="A44" s="1">
         <v>44150</v>
       </c>
       <c r="T44">
-        <v>0.47988335322180559</v>
+        <v>0.4798833532218056</v>
       </c>
       <c r="U44">
-        <v>0.45759044634245011</v>
+        <v>0.4575904463424501</v>
       </c>
       <c r="V44">
-        <v>0.40052187087329971</v>
+        <v>0.4005218708732997</v>
       </c>
       <c r="W44">
-        <v>0.44660145006450891</v>
+        <v>0.4466014500645089</v>
       </c>
       <c r="X44">
-        <v>0.50346857581999171</v>
+        <v>0.5034685758199917</v>
       </c>
       <c r="Y44">
-        <v>0.51344633866100853</v>
+        <v>0.5134463386610085</v>
       </c>
       <c r="Z44">
-        <v>0.55414881196293531</v>
+        <v>0.5541488119629353</v>
       </c>
       <c r="AA44">
         <v>1.094252934127212</v>
       </c>
       <c r="AB44">
-        <v>1.6546464342316101</v>
+        <v>1.65464643423161</v>
       </c>
       <c r="AC44">
         <v>2.815303213245683</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33">
       <c r="A45" s="1">
         <v>44242</v>
       </c>
@@ -1465,649 +1449,649 @@
         <v>0.4575057721601225</v>
       </c>
       <c r="V45">
-        <v>0.40638446817392188</v>
+        <v>0.4063844681739219</v>
       </c>
       <c r="W45">
-        <v>0.43191447926830612</v>
+        <v>0.4319144792683061</v>
       </c>
       <c r="X45">
-        <v>0.49931664399708608</v>
+        <v>0.4993166439970861</v>
       </c>
       <c r="Y45">
-        <v>0.54111539285777477</v>
+        <v>0.5411153928577748</v>
       </c>
       <c r="Z45">
-        <v>0.54359603099144838</v>
+        <v>0.5435960309914484</v>
       </c>
       <c r="AA45">
-        <v>0.44447675832652472</v>
+        <v>0.4444767583265247</v>
       </c>
       <c r="AB45">
-        <v>-7.4806659614575222E-3</v>
+        <v>-0.007480665961457522</v>
       </c>
       <c r="AC45">
-        <v>0.41011882881446238</v>
+        <v>0.4101188288144624</v>
       </c>
       <c r="AD45">
-        <v>0.66954749897842747</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.6695474989784275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" s="1">
         <v>44331</v>
       </c>
       <c r="V46">
-        <v>0.40711647244349253</v>
+        <v>0.4071164724434925</v>
       </c>
       <c r="W46">
-        <v>0.44029221152913178</v>
+        <v>0.4402922115291318</v>
       </c>
       <c r="X46">
-        <v>0.51332257654242386</v>
+        <v>0.5133225765424239</v>
       </c>
       <c r="Y46">
         <v>0.5500412147419369</v>
       </c>
       <c r="Z46">
-        <v>0.54595658392329649</v>
+        <v>0.5459565839232965</v>
       </c>
       <c r="AA46">
-        <v>0.38664465491253841</v>
+        <v>0.3866446549125384</v>
       </c>
       <c r="AB46">
-        <v>0.44932004966572159</v>
+        <v>0.4493200496657216</v>
       </c>
       <c r="AC46">
-        <v>-7.9589125732946076E-2</v>
+        <v>-0.07958912573294608</v>
       </c>
       <c r="AD46">
-        <v>7.7126802233663971E-2</v>
+        <v>0.07712680223366397</v>
       </c>
       <c r="AE46">
-        <v>-0.83026398708582916</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+        <v>-0.8302639870858292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" s="1">
         <v>44423</v>
       </c>
       <c r="W47">
-        <v>0.44151130203977368</v>
+        <v>0.4415113020397737</v>
       </c>
       <c r="X47">
-        <v>0.50958928345900856</v>
+        <v>0.5095892834590086</v>
       </c>
       <c r="Y47">
-        <v>0.53934012033276657</v>
+        <v>0.5393401203327666</v>
       </c>
       <c r="Z47">
-        <v>0.54804832291150651</v>
+        <v>0.5480483229115065</v>
       </c>
       <c r="AA47">
-        <v>0.59564726688965652</v>
+        <v>0.5956472668896565</v>
       </c>
       <c r="AB47">
-        <v>0.73307497052675241</v>
+        <v>0.7330749705267524</v>
       </c>
       <c r="AC47">
-        <v>0.78748252109133965</v>
+        <v>0.7874825210913396</v>
       </c>
       <c r="AD47">
-        <v>0.69882834393765658</v>
+        <v>0.6988283439376566</v>
       </c>
       <c r="AE47">
         <v>1.018409371995308</v>
       </c>
       <c r="AF47">
-        <v>1.1632333574039491</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+        <v>1.163233357403949</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" s="1">
         <v>44515</v>
       </c>
       <c r="X48">
-        <v>0.50744855576228265</v>
+        <v>0.5074485557622826</v>
       </c>
       <c r="Y48">
-        <v>0.54109192075217771</v>
+        <v>0.5410919207521777</v>
       </c>
       <c r="Z48">
-        <v>0.54657515020293945</v>
+        <v>0.5465751502029395</v>
       </c>
       <c r="AA48">
-        <v>0.53003156015239616</v>
+        <v>0.5300315601523962</v>
       </c>
       <c r="AB48">
-        <v>0.50292288372226768</v>
+        <v>0.5029228837222677</v>
       </c>
       <c r="AC48">
-        <v>0.61083789718440196</v>
+        <v>0.610837897184402</v>
       </c>
       <c r="AD48">
         <v>0.6563978856406073</v>
       </c>
       <c r="AE48">
-        <v>1.0289250886560319</v>
+        <v>1.028925088656032</v>
       </c>
       <c r="AF48">
-        <v>0.55072183819752496</v>
+        <v>0.550721838197525</v>
       </c>
       <c r="AG48">
-        <v>1.6172279616731851</v>
-      </c>
-    </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
+        <v>1.617227961673185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
       <c r="Y49">
-        <v>0.54323653172080877</v>
+        <v>0.5432365317208088</v>
       </c>
       <c r="Z49">
         <v>0.5465462798760875</v>
       </c>
       <c r="AA49">
-        <v>0.49592500371861392</v>
+        <v>0.4959250037186139</v>
       </c>
       <c r="AB49">
-        <v>0.51105368877725388</v>
+        <v>0.5110536887772539</v>
       </c>
       <c r="AC49">
         <v>0.4272835764662723</v>
       </c>
       <c r="AD49">
-        <v>0.46411303206307791</v>
+        <v>0.4641130320630779</v>
       </c>
       <c r="AE49">
-        <v>0.29139142410149033</v>
+        <v>0.2913914241014903</v>
       </c>
       <c r="AF49">
         <v>0.4715724452472505</v>
       </c>
       <c r="AG49">
-        <v>1.3818402016980811</v>
+        <v>1.381840201698081</v>
       </c>
       <c r="AH49">
-        <v>2.5792378928317228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
+        <v>2.579237892831723</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
       <c r="Z50">
-        <v>0.54697581624372849</v>
+        <v>0.5469758162437285</v>
       </c>
       <c r="AA50">
-        <v>0.52814674814313545</v>
+        <v>0.5281467481431354</v>
       </c>
       <c r="AB50">
-        <v>0.57083785284918265</v>
+        <v>0.5708378528491826</v>
       </c>
       <c r="AC50">
-        <v>0.54488141040242599</v>
+        <v>0.544881410402426</v>
       </c>
       <c r="AD50">
-        <v>0.55300886273806493</v>
+        <v>0.5530088627380649</v>
       </c>
       <c r="AE50">
-        <v>0.59514975638137035</v>
+        <v>0.5951497563813704</v>
       </c>
       <c r="AF50">
         <v>0.7565241646707257</v>
       </c>
       <c r="AG50">
-        <v>-8.551743659749067E-2</v>
+        <v>-0.08551743659749067</v>
       </c>
       <c r="AH50">
-        <v>-1.8890728599108661E-2</v>
+        <v>-0.01889072859910866</v>
       </c>
       <c r="AI50">
-        <v>-0.45870400459669819</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
+        <v>-0.4587040045966982</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
       <c r="AA51">
-        <v>0.52525176527500272</v>
+        <v>0.5252517652750027</v>
       </c>
       <c r="AB51">
         <v>0.5463925148334372</v>
       </c>
       <c r="AC51">
-        <v>0.55443893950511525</v>
+        <v>0.5544389395051152</v>
       </c>
       <c r="AD51">
-        <v>0.58306400549001181</v>
+        <v>0.5830640054900118</v>
       </c>
       <c r="AE51">
-        <v>0.76081686793743797</v>
+        <v>0.760816867937438</v>
       </c>
       <c r="AF51">
-        <v>0.65823489249315781</v>
+        <v>0.6582348924931578</v>
       </c>
       <c r="AG51">
         <v>0.7016402456898746</v>
       </c>
       <c r="AH51">
-        <v>0.11424326163255701</v>
+        <v>0.114243261632557</v>
       </c>
       <c r="AI51">
-        <v>-0.54243283640621875</v>
+        <v>-0.5424328364062188</v>
       </c>
       <c r="AJ51">
         <v>1.156411635873152</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
       <c r="AB52">
-        <v>0.53916606247128773</v>
+        <v>0.5391660624712877</v>
       </c>
       <c r="AC52">
-        <v>0.51730030103365066</v>
+        <v>0.5173003010336507</v>
       </c>
       <c r="AD52">
-        <v>0.54154631552107535</v>
+        <v>0.5415463155210753</v>
       </c>
       <c r="AE52">
-        <v>0.57118509763708614</v>
+        <v>0.5711850976370861</v>
       </c>
       <c r="AF52">
-        <v>0.58751377013959039</v>
+        <v>0.5875137701395904</v>
       </c>
       <c r="AG52">
-        <v>0.91568730290431111</v>
+        <v>0.9156873029043111</v>
       </c>
       <c r="AH52">
-        <v>1.0937089702896681</v>
+        <v>1.093708970289668</v>
       </c>
       <c r="AI52">
         <v>1.635494756126981</v>
       </c>
       <c r="AJ52">
-        <v>1.7043169243958891</v>
+        <v>1.704316924395889</v>
       </c>
       <c r="AK52">
         <v>2.658567824320484</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
       <c r="AC53">
-        <v>0.52813323951120827</v>
+        <v>0.5281332395112083</v>
       </c>
       <c r="AD53">
-        <v>0.54757219714954553</v>
+        <v>0.5475721971495455</v>
       </c>
       <c r="AE53">
-        <v>0.58465856707639752</v>
+        <v>0.5846585670763975</v>
       </c>
       <c r="AF53">
-        <v>0.65979700387323437</v>
+        <v>0.6597970038732344</v>
       </c>
       <c r="AG53">
-        <v>0.50027171093460954</v>
+        <v>0.5002717109346095</v>
       </c>
       <c r="AH53">
         <v>0.6071944601548015</v>
       </c>
       <c r="AI53">
-        <v>0.69882168117831878</v>
+        <v>0.6988216811783188</v>
       </c>
       <c r="AJ53">
-        <v>-0.19098355413636189</v>
+        <v>-0.1909835541363619</v>
       </c>
       <c r="AK53">
-        <v>0.37576590032106277</v>
+        <v>0.3757659003210628</v>
       </c>
       <c r="AL53">
-        <v>1.9998062119864151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
+        <v>1.999806211986415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
       <c r="AD54">
-        <v>0.55917379774962117</v>
+        <v>0.5591737977496212</v>
       </c>
       <c r="AE54">
-        <v>0.65423703482165196</v>
+        <v>0.654237034821652</v>
       </c>
       <c r="AF54">
-        <v>0.65542894408751062</v>
+        <v>0.6554289440875106</v>
       </c>
       <c r="AG54">
         <v>0.6110454483547445</v>
       </c>
       <c r="AH54">
-        <v>0.43097259199338123</v>
+        <v>0.4309725919933812</v>
       </c>
       <c r="AI54">
-        <v>0.19943456624562769</v>
+        <v>0.1994345662456277</v>
       </c>
       <c r="AJ54">
-        <v>0.37742476572888911</v>
+        <v>0.3774247657288891</v>
       </c>
       <c r="AK54">
-        <v>-0.29335639281754111</v>
+        <v>-0.2933563928175411</v>
       </c>
       <c r="AL54">
-        <v>0.81447662715892588</v>
+        <v>0.8144766271589259</v>
       </c>
       <c r="AM54">
-        <v>0.23277921780566821</v>
-      </c>
-    </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.2327792178056682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
       <c r="AE55">
-        <v>0.61984395680555027</v>
+        <v>0.6198439568055503</v>
       </c>
       <c r="AF55">
-        <v>0.62807620153338561</v>
+        <v>0.6280762015333856</v>
       </c>
       <c r="AG55">
-        <v>0.72458627952464516</v>
+        <v>0.7245862795246452</v>
       </c>
       <c r="AH55">
-        <v>0.70337091894695869</v>
+        <v>0.7033709189469587</v>
       </c>
       <c r="AI55">
-        <v>0.81684473092543075</v>
+        <v>0.8168447309254308</v>
       </c>
       <c r="AJ55">
-        <v>0.84766831436936341</v>
+        <v>0.8476683143693634</v>
       </c>
       <c r="AK55">
-        <v>0.83851901321932121</v>
+        <v>0.8385190132193212</v>
       </c>
       <c r="AL55">
-        <v>-8.452011724551195E-2</v>
+        <v>-0.08452011724551195</v>
       </c>
       <c r="AM55">
-        <v>-0.39448593265681597</v>
+        <v>-0.394485932656816</v>
       </c>
       <c r="AN55">
         <v>-0.1147171757997718</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
       <c r="AF56">
-        <v>0.64236997788270145</v>
+        <v>0.6423699778827014</v>
       </c>
       <c r="AG56">
-        <v>0.62671988687700508</v>
+        <v>0.6267198868770051</v>
       </c>
       <c r="AH56">
-        <v>0.65329293654225218</v>
+        <v>0.6532929365422522</v>
       </c>
       <c r="AI56">
-        <v>0.75166751113143493</v>
+        <v>0.7516675111314349</v>
       </c>
       <c r="AJ56">
-        <v>0.44593006990881129</v>
+        <v>0.4459300699088113</v>
       </c>
       <c r="AK56">
-        <v>0.65176913958264582</v>
+        <v>0.6517691395826458</v>
       </c>
       <c r="AL56">
-        <v>0.55395215290304134</v>
+        <v>0.5539521529030413</v>
       </c>
       <c r="AM56">
-        <v>0.61196309084275813</v>
+        <v>0.6119630908427581</v>
       </c>
       <c r="AN56">
-        <v>0.48849730787142442</v>
+        <v>0.4884973078714244</v>
       </c>
       <c r="AO56">
-        <v>0.55150320081453263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.5515032008145326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
       <c r="AG57">
-        <v>0.62761609111581151</v>
+        <v>0.6276160911158115</v>
       </c>
       <c r="AH57">
-        <v>0.56658079062834932</v>
+        <v>0.5665807906283493</v>
       </c>
       <c r="AI57">
-        <v>0.52068612425096594</v>
+        <v>0.5206861242509659</v>
       </c>
       <c r="AJ57">
-        <v>0.43534276896003848</v>
+        <v>0.4353427689600385</v>
       </c>
       <c r="AK57">
-        <v>0.29300997411359347</v>
+        <v>0.2930099741135935</v>
       </c>
       <c r="AL57">
-        <v>0.57297726177180608</v>
+        <v>0.5729772617718061</v>
       </c>
       <c r="AM57">
-        <v>0.48468140353999012</v>
+        <v>0.4846814035399901</v>
       </c>
       <c r="AN57">
-        <v>0.39051112223600742</v>
+        <v>0.3905111222360074</v>
       </c>
       <c r="AO57">
-        <v>0.22164285826747901</v>
+        <v>0.221642858267479</v>
       </c>
       <c r="AP57">
-        <v>0.90389506221928562</v>
-      </c>
-    </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.9038950622192856</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
       <c r="AH58">
-        <v>0.62495549796231498</v>
+        <v>0.624955497962315</v>
       </c>
       <c r="AI58">
-        <v>0.65122017458233528</v>
+        <v>0.6512201745823353</v>
       </c>
       <c r="AJ58">
-        <v>0.58835161609417297</v>
+        <v>0.588351616094173</v>
       </c>
       <c r="AK58">
-        <v>0.50431016349711422</v>
+        <v>0.5043101634971142</v>
       </c>
       <c r="AL58">
-        <v>0.39298795619140697</v>
+        <v>0.392987956191407</v>
       </c>
       <c r="AM58">
-        <v>0.29070663854463141</v>
+        <v>0.2907066385446314</v>
       </c>
       <c r="AN58">
-        <v>0.29261315041533442</v>
+        <v>0.2926131504153344</v>
       </c>
       <c r="AO58">
-        <v>0.29383142102180121</v>
+        <v>0.2938314210218012</v>
       </c>
       <c r="AP58">
-        <v>0.45648838882808901</v>
+        <v>0.456488388828089</v>
       </c>
       <c r="AQ58">
-        <v>3.8460200273882972E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.03846020027388297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
       <c r="AI59">
-        <v>0.69026176609558376</v>
+        <v>0.6902617660955838</v>
       </c>
       <c r="AJ59">
-        <v>0.53000999596236009</v>
+        <v>0.5300099959623601</v>
       </c>
       <c r="AK59">
-        <v>0.55863195825411049</v>
+        <v>0.5586319582541105</v>
       </c>
       <c r="AL59">
-        <v>0.45124449543147072</v>
+        <v>0.4512444954314707</v>
       </c>
       <c r="AM59">
-        <v>0.37147070202791438</v>
+        <v>0.3714707020279144</v>
       </c>
       <c r="AN59">
-        <v>0.34065873783937167</v>
+        <v>0.3406587378393717</v>
       </c>
       <c r="AO59">
-        <v>0.34451447522803319</v>
+        <v>0.3445144752280332</v>
       </c>
       <c r="AP59">
-        <v>4.8553596421934818E-2</v>
+        <v>0.04855359642193482</v>
       </c>
       <c r="AQ59">
-        <v>-0.20125986485405409</v>
+        <v>-0.2012598648540541</v>
       </c>
       <c r="AR59">
-        <v>0.60540806025296034</v>
-      </c>
-    </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.6054080602529603</v>
+      </c>
+    </row>
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
       <c r="AJ60">
-        <v>0.49711440763808029</v>
+        <v>0.4971144076380803</v>
       </c>
       <c r="AK60">
-        <v>0.45683619520563229</v>
+        <v>0.4568361952056323</v>
       </c>
       <c r="AL60">
-        <v>0.47956785049004458</v>
+        <v>0.4795678504900446</v>
       </c>
       <c r="AM60">
-        <v>0.39380317731811759</v>
+        <v>0.3938031773181176</v>
       </c>
       <c r="AN60">
-        <v>0.34746929175653513</v>
+        <v>0.3474692917565351</v>
       </c>
       <c r="AO60">
-        <v>0.31362294837858418</v>
+        <v>0.3136229483785842</v>
       </c>
       <c r="AP60">
-        <v>0.23383096163755779</v>
+        <v>0.2338309616375578</v>
       </c>
       <c r="AQ60">
-        <v>0.41401974195174329</v>
+        <v>0.4140197419517433</v>
       </c>
       <c r="AR60">
-        <v>0.44556485285070951</v>
+        <v>0.4455648528507095</v>
       </c>
       <c r="AS60">
-        <v>0.67852544598107101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.678525445981071</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
       <c r="AK61">
-        <v>0.47586501803899872</v>
+        <v>0.4758650180389987</v>
       </c>
       <c r="AL61">
-        <v>0.45377676121018851</v>
+        <v>0.4537767612101885</v>
       </c>
       <c r="AM61">
-        <v>0.36952521855507059</v>
+        <v>0.3695252185550706</v>
       </c>
       <c r="AN61">
-        <v>0.33554427059740499</v>
+        <v>0.335544270597405</v>
       </c>
       <c r="AO61">
-        <v>0.31173235074472749</v>
+        <v>0.3117323507447275</v>
       </c>
       <c r="AP61">
         <v>0.2695332690536329</v>
       </c>
       <c r="AQ61">
-        <v>0.30130067526136572</v>
+        <v>0.3013006752613657</v>
       </c>
       <c r="AR61">
-        <v>3.5536318861263641E-2</v>
+        <v>0.03553631886126364</v>
       </c>
       <c r="AS61">
         <v>0.1221295520771107</v>
       </c>
       <c r="AT61">
-        <v>9.3069085184768641E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.09306908518476864</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
       <c r="AL62">
-        <v>0.45517722223620272</v>
+        <v>0.4551772222362027</v>
       </c>
       <c r="AM62">
-        <v>0.37096384347113748</v>
+        <v>0.3709638434711375</v>
       </c>
       <c r="AN62">
-        <v>0.33749432863429779</v>
+        <v>0.3374943286342978</v>
       </c>
       <c r="AO62">
-        <v>0.31905534047300832</v>
+        <v>0.3190553404730083</v>
       </c>
       <c r="AP62">
-        <v>0.22466176740029789</v>
+        <v>0.2246617674002979</v>
       </c>
       <c r="AQ62">
-        <v>0.20399456432975499</v>
+        <v>0.203994564329755</v>
       </c>
       <c r="AR62">
-        <v>0.16338015821577831</v>
+        <v>0.1633801582157783</v>
       </c>
       <c r="AS62">
-        <v>7.8035347102073369E-2</v>
+        <v>0.07803534710207337</v>
       </c>
       <c r="AT62">
-        <v>4.2938519980659812E-2</v>
+        <v>0.04293851998065981</v>
       </c>
       <c r="AU62">
-        <v>4.7131299501296818E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.04713129950129682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
       <c r="AM63">
-        <v>0.37607976290222489</v>
+        <v>0.3760797629022249</v>
       </c>
       <c r="AN63">
-        <v>0.33942602637081909</v>
+        <v>0.3394260263708191</v>
       </c>
       <c r="AO63">
-        <v>0.31728808825905641</v>
+        <v>0.3172880882590564</v>
       </c>
       <c r="AP63">
-        <v>0.22838864548403659</v>
+        <v>0.2283886454840366</v>
       </c>
       <c r="AQ63">
         <v>0.2529182784354928</v>
       </c>
       <c r="AR63">
-        <v>0.20255118686460541</v>
+        <v>0.2025511868646054</v>
       </c>
       <c r="AS63">
         <v>0.1818619313706766</v>
@@ -2116,53 +2100,56 @@
         <v>0.2183045770073796</v>
       </c>
       <c r="AU63">
-        <v>0.22089991522397839</v>
+        <v>0.2208999152239784</v>
       </c>
       <c r="AV63">
-        <v>0.63617540750688917</v>
-      </c>
-    </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.6361754075068892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
       <c r="AN64">
-        <v>0.33847454342111832</v>
+        <v>0.3384745434211183</v>
       </c>
       <c r="AO64">
-        <v>0.31621194637668332</v>
+        <v>0.3162119463766833</v>
       </c>
       <c r="AP64">
-        <v>0.23629744113027251</v>
+        <v>0.2362974411302725</v>
       </c>
       <c r="AQ64">
-        <v>0.26010889069135951</v>
+        <v>0.2601088906913595</v>
       </c>
       <c r="AR64">
-        <v>0.17099126031346809</v>
+        <v>0.1709912603134681</v>
       </c>
       <c r="AS64">
-        <v>0.16531854699087881</v>
+        <v>0.1653185469908788</v>
       </c>
       <c r="AT64">
-        <v>0.18617120419816871</v>
+        <v>0.1861712041981687</v>
       </c>
       <c r="AU64">
-        <v>0.26418694411101629</v>
+        <v>0.2641869441110163</v>
       </c>
       <c r="AV64">
-        <v>0.44368851646067048</v>
-      </c>
-    </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.4436885164606705</v>
+      </c>
+      <c r="AW64">
+        <v>0.4580025317319599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
       <c r="AO65">
-        <v>0.31691917184752599</v>
+        <v>0.316919171847526</v>
       </c>
       <c r="AP65">
-        <v>0.23367559853005329</v>
+        <v>0.2336755985300533</v>
       </c>
       <c r="AQ65">
         <v>0.248113043295838</v>
@@ -2171,19 +2158,22 @@
         <v>0.1719851556012624</v>
       </c>
       <c r="AS65">
-        <v>0.15166165526842021</v>
+        <v>0.1516616552684202</v>
       </c>
       <c r="AT65">
-        <v>0.16344089528952449</v>
+        <v>0.1634408952895245</v>
       </c>
       <c r="AU65">
-        <v>0.22262543850049549</v>
+        <v>0.2226254385004955</v>
       </c>
       <c r="AV65">
-        <v>2.2820544044153099E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.0228205440441531</v>
+      </c>
+      <c r="AW65">
+        <v>0.1500769980497607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2194,50 +2184,56 @@
         <v>0.2497910746463467</v>
       </c>
       <c r="AR66">
-        <v>0.17716568332524621</v>
+        <v>0.1771656833252462</v>
       </c>
       <c r="AS66">
         <v>0.1575983818750111</v>
       </c>
       <c r="AT66">
-        <v>0.17425865930828169</v>
+        <v>0.1742586593082817</v>
       </c>
       <c r="AU66">
-        <v>0.22504853145625209</v>
+        <v>0.2250485314562521</v>
       </c>
       <c r="AV66">
         <v>0.1454695354913681</v>
       </c>
-    </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="AW66">
+        <v>0.08692382407563778</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
       <c r="AQ67">
-        <v>0.25182519637236778</v>
+        <v>0.2518251963723678</v>
       </c>
       <c r="AR67">
         <v>0.1757267001009318</v>
       </c>
       <c r="AS67">
-        <v>0.15852671663812221</v>
+        <v>0.1585267166381222</v>
       </c>
       <c r="AT67">
         <v>0.1756583466455853</v>
       </c>
       <c r="AU67">
-        <v>0.23187062136826489</v>
+        <v>0.2318706213682649</v>
       </c>
       <c r="AV67">
         <v>0.1910424935999793</v>
       </c>
-    </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="AW67">
+        <v>0.1452293504052996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
       <c r="AR68">
-        <v>0.17518864217640329</v>
+        <v>0.1751886421764033</v>
       </c>
       <c r="AS68">
         <v>0.1573132100897035</v>
@@ -2246,13 +2242,16 @@
         <v>0.1734700161652025</v>
       </c>
       <c r="AU68">
-        <v>0.22977325508502591</v>
+        <v>0.2297732550850259</v>
       </c>
       <c r="AV68">
-        <v>0.16040522055219261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.1604052205521926</v>
+      </c>
+      <c r="AW68">
+        <v>0.1409013763615072</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2260,16 +2259,19 @@
         <v>0.1574370579151948</v>
       </c>
       <c r="AT69">
-        <v>0.17373768305488069</v>
+        <v>0.1737376830548807</v>
       </c>
       <c r="AU69">
-        <v>0.22906829543246099</v>
+        <v>0.229068295432461</v>
       </c>
       <c r="AV69">
-        <v>0.15917510101830201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.159175101018302</v>
+      </c>
+      <c r="AW69">
+        <v>0.1335834283383753</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2280,26 +2282,43 @@
         <v>0.2296144803877474</v>
       </c>
       <c r="AV70">
-        <v>0.16466088031614751</v>
-      </c>
-    </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.1646608803161475</v>
+      </c>
+      <c r="AW70">
+        <v>0.135872578757698</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
       <c r="AU71">
-        <v>0.22960691359659821</v>
+        <v>0.2296069135965982</v>
       </c>
       <c r="AV71">
-        <v>0.16369967831467741</v>
-      </c>
-    </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.35">
+        <v>0.1636996783146774</v>
+      </c>
+      <c r="AW71">
+        <v>0.1363920206570818</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
-        <v>0.16296959686719481</v>
+        <v>0.1629695968671948</v>
+      </c>
+      <c r="AW72">
+        <v>0.1359471541599538</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" s="1">
+        <v>46798</v>
+      </c>
+      <c r="AW73">
+        <v>0.1359748208526332</v>
       </c>
     </row>
   </sheetData>
